--- a/benchmark-results-hsw1-default-2016-12-12.xlsx
+++ b/benchmark-results-hsw1-default-2016-12-12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="output.csv" sheetId="10" r:id="rId1"/>
@@ -81,6 +81,7 @@
     <definedName name="output_9" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
     <definedName name="output_assume_single_threaded" localSheetId="0">output.csv!$A$1:$J$106</definedName>
     <definedName name="output_default" localSheetId="0">output.csv!$A$1:$J$106</definedName>
+    <definedName name="output_default_1" localSheetId="0">output.csv!$A$1:$K$106</definedName>
     <definedName name="output_default_new" localSheetId="0">output.csv!$A$1:$K$106</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -130,7 +131,7 @@
     </textPr>
   </connection>
   <connection id="3" name="output-default-new1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-default-new.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-default-new.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -152,217 +153,224 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="output11" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="output-default2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-default.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="output11" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="output111" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="output111" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="output1111" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="8" name="output1111" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="output1112" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="output1112" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="output1113" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="10" name="output1113" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="output1114" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="11" name="output1114" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="output12" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="12" name="output12" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="output121" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="13" name="output121" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="output1211" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="14" name="output1211" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="output1212" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="15" name="output1212" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="output1213" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="16" name="output1213" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" name="output1214" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="17" name="output1214" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" name="output13" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="18" name="output13" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" name="output131" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="19" name="output131" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" name="output1311" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="20" name="output1311" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" name="output1312" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="21" name="output1312" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" name="output1313" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="22" name="output1313" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="22" name="output1314" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="23" name="output1314" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="23" name="output14" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="24" name="output14" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="24" name="output141" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="25" name="output141" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="25" name="output1411" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="26" name="output1411" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="26" name="output1412" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="27" name="output1412" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="27" name="output1413" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="28" name="output1413" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="28" name="output1414" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="29" name="output1414" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="29" name="output15" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="30" name="output15" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="30" name="output151" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="31" name="output151" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="31" name="output1511" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="32" name="output1511" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="32" name="output1512" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="33" name="output1512" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="33" name="output1513" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="34" name="output1513" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="34" name="output1514" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="35" name="output1514" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="35" name="output16" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="36" name="output16" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -378,7 +386,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="36" name="output161" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="37" name="output161" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -394,7 +402,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="37" name="output1611" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="38" name="output1611" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -410,7 +418,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="38" name="output1612" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="39" name="output1612" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -426,7 +434,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="39" name="output1613" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="40" name="output1613" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -442,7 +450,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="40" name="output1614" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="41" name="output1614" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -458,56 +466,56 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="41" name="output17" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="42" name="output17" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="42" name="output171" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="43" name="output171" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="43" name="output1711" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="44" name="output1711" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="44" name="output1712" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="45" name="output1712" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="45" name="output1713" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="46" name="output1713" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="46" name="output1714" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="47" name="output1714" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="47" name="output18" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="48" name="output18" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="48" name="output2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="49" name="output2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -523,7 +531,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="49" name="output21" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="50" name="output21" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -539,7 +547,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="50" name="output22" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="51" name="output22" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -555,7 +563,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="51" name="output23" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="52" name="output23" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -571,7 +579,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="52" name="output24" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="53" name="output24" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -591,7 +599,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="124">
   <si>
     <t>others</t>
   </si>
@@ -938,9 +946,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Swiftc flags for building benchmark suite: -g -Ounchecked -whole-module-optimization -assume-single-threaded</t>
-  </si>
-  <si>
     <t>Toolchain: Swift open source (cloned from github on 2016-12-12)</t>
   </si>
   <si>
@@ -960,6 +965,12 @@
   </si>
   <si>
     <t>libswiftCore(nonatomicRC+atomicRC)</t>
+  </si>
+  <si>
+    <t>libswiftCore(atomicRC+nonatomicRC)</t>
+  </si>
+  <si>
+    <t>Swiftc flags for building benchmark suite: -g -Ounchecked -whole-module-optimization</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Swift benchmark suite CPU samples (sorted by % of main)</a:t>
+              <a:t>Swift benchmark suite CPU samples (sorted by main)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6783,7 +6794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>libswiftCore(nonatomicRC)</c:v>
+                  <c:v>libswiftCore(atomicRC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7163,67 +7174,67 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00145667198298777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000679608781727388</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000864967196527075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>9.35366195865681E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0855498512937145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00237812128418549</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0201058557515379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0128085408855873</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0615389533582686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0059337176764101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0028607906184982</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0.401709428177694</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0.488767939205669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0.465922405936727</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0.896864216376595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0.507626877163626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0.363422854292925</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0176341609000951</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00485436893203883</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.0</c:v>
@@ -7244,88 +7255,88 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00780771814585355</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00577161074705859</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00497027867797671</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0.063128652169748</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0.421725628691469</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0.358783727341074</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0.319776910409331</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0.916685002986201</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0.28920881512031</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0.65882728221784</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0.920697838496568</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0.393898766468481</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0.490579509091245</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0.51866477047133</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0.380446406537059</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0.998363702092305</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0.205309951435239</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>4.54186234523604E-6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0.809905099618846</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0.511985924785573</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0.567351680487121</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0.829971822630876</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0.350504721841324</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0.359849530903636</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0828255178226462</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0.833293931134227</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.0</c:v>
@@ -7337,46 +7348,46 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0.242937853107345</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0.218210361067504</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0.943892617449664</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0.953052550231839</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00380096751900484</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0.990522391411759</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0.725278825821966</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0.783305484447152</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>0.373803113242872</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00185890824651223</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0.202821467310916</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0.36372295986437</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.0</c:v>
@@ -7388,91 +7399,91 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0643153526970954</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0.280110156436972</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0.999004837595024</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00075125835774923</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0</c:v>
+                  <c:v>0.442037724599583</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>0.998976115746766</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>0.792436567164179</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>0.428544008353295</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>0.297670522194848</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>0.829053151095618</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>0.999262939686091</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0</c:v>
+                  <c:v>0.343762160479415</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0</c:v>
+                  <c:v>0.481433960755039</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0</c:v>
+                  <c:v>0.416437791815435</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00171009140143697</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0</c:v>
+                  <c:v>5.25983589312013E-5</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0617297415203403</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0</c:v>
+                  <c:v>0.800460661898412</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0716039560499856</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0</c:v>
+                  <c:v>0.214532871972318</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0</c:v>
+                  <c:v>0.998921009974442</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0430794981375663</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0</c:v>
+                  <c:v>0.947488065469425</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0</c:v>
+                  <c:v>0.516330499103977</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0415669288346822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7487,7 +7498,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>libswiftCore(atomicRC)</c:v>
+                  <c:v>libswiftCore(nonatomicRC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7867,67 +7878,67 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00145667198298777</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000679608781727388</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000864967196527075</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.35366195865681E-5</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0855498512937145</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00237812128418549</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0201058557515379</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0128085408855873</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0615389533582686</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0059337176764101</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0028607906184982</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.401709428177694</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.488767939205669</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.465922405936727</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.896864216376595</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.507626877163626</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.363422854292925</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0176341609000951</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00485436893203883</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.0</c:v>
@@ -7948,88 +7959,88 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00780771814585355</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00577161074705859</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00497027867797671</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.063128652169748</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.421725628691469</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.358783727341074</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.319776910409331</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.916685002986201</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.28920881512031</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.65882728221784</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.920697838496568</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.393898766468481</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.490579509091245</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.51866477047133</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.380446406537059</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.998363702092305</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.205309951435239</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.54186234523604E-6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.809905099618846</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.511985924785573</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.567351680487121</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.829971822630876</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.350504721841324</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.359849530903636</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0828255178226462</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.833293931134227</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.0</c:v>
@@ -8041,46 +8052,46 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0142857142857143</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.242937853107345</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.218210361067504</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.943892617449664</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.953052550231839</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.00380096751900484</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.990522391411759</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.725278825821966</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.783305484447152</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.373803113242872</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.00185890824651223</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.202821467310916</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.36372295986437</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.0</c:v>
@@ -8092,91 +8103,91 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0643153526970954</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.280110156436972</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.999004837595024</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.00075125835774923</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.442037724599583</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.998976115746766</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.792436567164179</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.428544008353295</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.297670522194848</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.829053151095618</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.999262939686091</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.343762160479415</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.481433960755039</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.416437791815435</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.00171009140143697</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.25983589312013E-5</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0617297415203403</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.800460661898412</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0716039560499856</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.214532871972318</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.998921009974442</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0430794981375663</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.947488065469425</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.516330499103977</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.0415669288346822</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8192,11 +8203,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-447959488"/>
-        <c:axId val="-447956576"/>
+        <c:axId val="-42323424"/>
+        <c:axId val="-42320512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-447959488"/>
+        <c:axId val="-42323424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8238,7 +8249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-447956576"/>
+        <c:crossAx val="-42320512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8246,7 +8257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-447956576"/>
+        <c:axId val="-42320512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8296,7 +8307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-447959488"/>
+        <c:crossAx val="-42323424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8442,7 +8453,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Swift benchmark suite CPU samples (sorted by % of libswiftCore(nonatomicRC+atomicRC))</a:t>
+              <a:t>Swift benchmark suite CPU samples (sorted by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>libswiftCore(atomicRC+nonatomicRC))</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14127,7 +14146,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>libswiftCore(nonatomicRC)</c:v>
+                  <c:v>libswiftCore(atomicRC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14570,253 +14589,253 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>4.54186234523604E-6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>5.25983589312013E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>9.35366195865681E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000679608781727388</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00075125835774923</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000864967196527075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00145667198298777</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00171009140143697</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00185890824651223</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00237812128418549</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0028607906184982</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00380096751900484</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00485436893203883</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00497027867797671</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00577161074705859</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0059337176764101</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00780771814585355</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0128085408855873</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0176341609000951</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0201058557515379</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0415669288346822</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0430794981375663</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0615389533582686</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0617297415203403</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>0.063128652169748</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0643153526970954</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0716039560499856</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0828255178226462</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0855498512937145</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0.202821467310916</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0.205309951435239</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0.214532871972318</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0.218210361067504</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0.242937853107345</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0.280110156436972</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0.28920881512031</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0.297670522194848</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0.319776910409331</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0.343762160479415</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0.350504721841324</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0.358783727341074</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0.359849530903636</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0.363422854292925</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0.36372295986437</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0.373803113242872</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0.380446406537059</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>0.393898766468481</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0.401709428177694</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0.416437791815435</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0.421725628691469</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0.428544008353295</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0.442037724599583</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0.465922405936727</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0.481433960755039</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0.488767939205669</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0.490579509091245</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0.507626877163626</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>0.511985924785573</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0</c:v>
+                  <c:v>0.516330499103977</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>0.51866477047133</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>0.567351680487121</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>0.65882728221784</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>0.725278825821966</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>0.783305484447152</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>0.792436567164179</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0</c:v>
+                  <c:v>0.800460661898412</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0</c:v>
+                  <c:v>0.809905099618846</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0</c:v>
+                  <c:v>0.829053151095618</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0</c:v>
+                  <c:v>0.829971822630876</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0</c:v>
+                  <c:v>0.833293931134227</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0</c:v>
+                  <c:v>0.896864216376595</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0</c:v>
+                  <c:v>0.916685002986201</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0</c:v>
+                  <c:v>0.920697838496568</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0</c:v>
+                  <c:v>0.943892617449664</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0</c:v>
+                  <c:v>0.947488065469425</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0</c:v>
+                  <c:v>0.953052550231839</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0</c:v>
+                  <c:v>0.990522391411759</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0</c:v>
+                  <c:v>0.998363702092305</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0</c:v>
+                  <c:v>0.998921009974442</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0</c:v>
+                  <c:v>0.998976115746766</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0</c:v>
+                  <c:v>0.999004837595024</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.0</c:v>
+                  <c:v>0.999262939686091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14831,7 +14850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>libswiftCore(atomicRC)</c:v>
+                  <c:v>libswiftCore(nonatomicRC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15274,253 +15293,253 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.54186234523604E-6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.25983589312013E-5</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.35366195865681E-5</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000679608781727388</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.00075125835774923</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.000864967196527075</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00145667198298777</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00171009140143697</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00185890824651223</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00237812128418549</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0028607906184982</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00380096751900484</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00485436893203883</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00497027867797671</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00577161074705859</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0059337176764101</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00780771814585355</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0128085408855873</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0142857142857143</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0176341609000951</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0201058557515379</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0415669288346822</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0430794981375663</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0615389533582686</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0617297415203403</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.063128652169748</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0643153526970954</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0716039560499856</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0828255178226462</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0855498512937145</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.202821467310916</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.205309951435239</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.214532871972318</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.218210361067504</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.242937853107345</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.280110156436972</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.28920881512031</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.297670522194848</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.319776910409331</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.343762160479415</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.350504721841324</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.358783727341074</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.359849530903636</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.363422854292925</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.36372295986437</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.373803113242872</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.380446406537059</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.393898766468481</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.401709428177694</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.416437791815435</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.421725628691469</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.428544008353295</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.442037724599583</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.465922405936727</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.481433960755039</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.488767939205669</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.490579509091245</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.507626877163626</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.511985924785573</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.516330499103977</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.51866477047133</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.567351680487121</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.65882728221784</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.725278825821966</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.783305484447152</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.792436567164179</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.800460661898412</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.809905099618846</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.829053151095618</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.829971822630876</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.833293931134227</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.896864216376595</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.916685002986201</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.920697838496568</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.943892617449664</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.947488065469425</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.953052550231839</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.990522391411759</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.998363702092305</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.998921009974442</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.998976115746766</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.999004837595024</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.999262939686091</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15536,11 +15555,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-447896912"/>
-        <c:axId val="-447894000"/>
+        <c:axId val="-85041888"/>
+        <c:axId val="-85038976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-447896912"/>
+        <c:axId val="-85041888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15582,7 +15601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-447894000"/>
+        <c:crossAx val="-85038976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15590,7 +15609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-447894000"/>
+        <c:axId val="-85038976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15640,7 +15659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-447896912"/>
+        <c:crossAx val="-85041888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16878,243 +16897,247 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_5" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_4" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_28" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_27" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_26" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_25" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_24" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_23" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_31" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_32" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_38" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_37" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default-new" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_4" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_6" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_38" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_37" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_36" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_35" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_34" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_33" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_32" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_31" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_30" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_29" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_28" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_27" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_26" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_25" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_24" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_23" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_36" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_30" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_35" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_34" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_33" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_6" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_29" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_5" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17382,8 +17405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17430,7 +17453,7 @@
         <v>120</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N1" t="s">
         <v>114</v>
@@ -17460,13 +17483,13 @@
         <v>95</v>
       </c>
       <c r="X1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>121</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -17541,11 +17564,11 @@
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5556385</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>5556385</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f>SUM(X2:Y2)</f>
@@ -17581,14 +17604,14 @@
         <v>34011</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>129718</v>
       </c>
       <c r="K3">
-        <v>129718</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f>SUM(B3:J3)</f>
-        <v>193197</v>
+        <v>322915</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -17620,14 +17643,14 @@
         <v>170700</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>120233</v>
       </c>
       <c r="K4">
-        <v>120233</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N66" si="1">SUM(B4:J4)</f>
-        <v>210602</v>
+        <v>330835</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -17659,14 +17682,14 @@
         <v>2265</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>42760</v>
+        <v>42764</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -17698,14 +17721,14 @@
         <v>449</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4775</v>
       </c>
       <c r="K6">
-        <v>4775</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>232718</v>
+        <v>237493</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -17737,14 +17760,14 @@
         <v>118</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="K7">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>66462</v>
+        <v>66985</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -17776,14 +17799,14 @@
         <v>61</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="K8">
-        <v>1012</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>174329</v>
+        <v>175341</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -17815,14 +17838,14 @@
         <v>129</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="K9">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>88455</v>
+        <v>88983</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -17854,14 +17877,14 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="K10">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>168565</v>
+        <v>169407</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -17893,14 +17916,14 @@
         <v>146</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="K11">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>84350</v>
+        <v>84592</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -17932,14 +17955,14 @@
         <v>62</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="K12">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>281739</v>
+        <v>282150</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -17971,14 +17994,14 @@
         <v>495</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2757</v>
       </c>
       <c r="K13">
-        <v>2757</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>212490</v>
+        <v>215247</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -18010,14 +18033,14 @@
         <v>11271</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>250287</v>
       </c>
       <c r="K14">
-        <v>250287</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>28782</v>
+        <v>279069</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -18088,14 +18111,14 @@
         <v>39575</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>167459</v>
       </c>
       <c r="K16">
-        <v>167459</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>162427</v>
+        <v>329886</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -18127,14 +18150,14 @@
         <v>41</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>67640</v>
+        <v>67686</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -18166,14 +18189,14 @@
         <v>10869</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>76152</v>
       </c>
       <c r="K18">
-        <v>76152</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>79652</v>
+        <v>155804</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -18205,14 +18228,14 @@
         <v>62</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>61221</v>
+        <v>61274</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -18244,14 +18267,14 @@
         <v>7019</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>71575</v>
       </c>
       <c r="K20">
-        <v>71575</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>82045</v>
+        <v>153620</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -18283,14 +18306,14 @@
         <v>61363</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="K21">
-        <v>15400</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>234848</v>
+        <v>250248</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -18478,14 +18501,14 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -18556,14 +18579,14 @@
         <v>41697</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>5879</v>
       </c>
       <c r="K28">
-        <v>5879</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
-        <v>327508</v>
+        <v>333387</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -18634,14 +18657,14 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>14181</v>
       </c>
       <c r="K30">
-        <v>14181</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>151582</v>
+        <v>165763</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -18673,14 +18696,14 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -18751,14 +18774,14 @@
         <v>29001</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>40204</v>
       </c>
       <c r="K33">
-        <v>40204</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <f t="shared" si="1"/>
-        <v>155617</v>
+        <v>195821</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -18790,14 +18813,14 @@
         <v>34213</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>90487</v>
       </c>
       <c r="K34">
-        <v>90487</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <f t="shared" si="1"/>
-        <v>167675</v>
+        <v>258162</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -18829,14 +18852,14 @@
         <v>32635</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>115235</v>
       </c>
       <c r="K35">
-        <v>115235</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <f t="shared" si="1"/>
-        <v>161481</v>
+        <v>276716</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -18868,14 +18891,14 @@
         <v>22997</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>96660</v>
       </c>
       <c r="K36">
-        <v>96660</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <f t="shared" si="1"/>
-        <v>148733</v>
+        <v>245393</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -18907,14 +18930,14 @@
         <v>18587</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>125712</v>
       </c>
       <c r="K37">
-        <v>125712</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <f t="shared" si="1"/>
-        <v>119826</v>
+        <v>245538</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -18946,14 +18969,14 @@
         <v>27732</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>57152</v>
       </c>
       <c r="K38">
-        <v>57152</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <f t="shared" si="1"/>
-        <v>140463</v>
+        <v>197615</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -18985,14 +19008,14 @@
         <v>24630</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>83856</v>
       </c>
       <c r="K39">
-        <v>83856</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <f t="shared" si="1"/>
-        <v>140476</v>
+        <v>224332</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -19024,14 +19047,14 @@
         <v>5690</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>6926</v>
       </c>
       <c r="K40">
-        <v>6926</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <f t="shared" si="1"/>
-        <v>9497</v>
+        <v>16423</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -19063,14 +19086,14 @@
         <v>42056</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>212667</v>
       </c>
       <c r="K41">
-        <v>212667</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <f t="shared" si="1"/>
-        <v>43567</v>
+        <v>256234</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -19141,14 +19164,14 @@
         <v>20703</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>212373</v>
       </c>
       <c r="K43">
-        <v>212373</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <f t="shared" si="1"/>
-        <v>55627</v>
+        <v>268000</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -19180,14 +19203,14 @@
         <v>73249</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>65818</v>
       </c>
       <c r="K44">
-        <v>65818</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <f t="shared" si="1"/>
-        <v>258694</v>
+        <v>324512</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -19258,14 +19281,14 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -19297,14 +19320,14 @@
         <v>12660</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>104958</v>
       </c>
       <c r="K47">
-        <v>104958</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <f t="shared" si="1"/>
-        <v>39756</v>
+        <v>144714</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -19336,14 +19359,14 @@
         <v>83861</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>111634</v>
       </c>
       <c r="K48">
-        <v>111634</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <f t="shared" si="1"/>
-        <v>148862</v>
+        <v>260496</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -19375,14 +19398,14 @@
         <v>9561</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="K49">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <f t="shared" si="1"/>
-        <v>9780</v>
+        <v>10439</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -19414,14 +19437,14 @@
         <v>2</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>22052</v>
       </c>
       <c r="K50">
-        <v>22052</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>22263</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -19453,14 +19476,14 @@
         <v>5988</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>83100</v>
       </c>
       <c r="K51">
-        <v>83100</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <f t="shared" si="1"/>
-        <v>213569</v>
+        <v>296669</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -19492,14 +19515,14 @@
         <v>8400</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <f t="shared" si="1"/>
-        <v>19011</v>
+        <v>19012</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -19531,14 +19554,14 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>303686</v>
       </c>
       <c r="K53">
-        <v>303686</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>303910</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -19570,14 +19593,14 @@
         <v>73731</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>5094</v>
       </c>
       <c r="K54">
-        <v>5094</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <f t="shared" si="1"/>
-        <v>77427</v>
+        <v>82521</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -19726,14 +19749,14 @@
         <v>46091</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>132611</v>
       </c>
       <c r="K58">
-        <v>132611</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <f t="shared" si="1"/>
-        <v>137704</v>
+        <v>270315</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -19765,14 +19788,14 @@
         <v>145803</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K59">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <f t="shared" si="1"/>
-        <v>146311</v>
+        <v>146421</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -19804,14 +19827,14 @@
         <v>17447</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>141628</v>
       </c>
       <c r="K60">
-        <v>141628</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <f t="shared" si="1"/>
-        <v>108002</v>
+        <v>249630</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -19843,14 +19866,14 @@
         <v>1175</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>8590</v>
       </c>
       <c r="K61">
-        <v>8590</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <f t="shared" si="1"/>
-        <v>15352</v>
+        <v>23942</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -19882,14 +19905,14 @@
         <v>269</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>9866</v>
       </c>
       <c r="K62">
-        <v>9866</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>10352</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -19921,14 +19944,14 @@
         <v>1306</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>8834</v>
       </c>
       <c r="K63">
-        <v>8834</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <f t="shared" si="1"/>
-        <v>16864</v>
+        <v>25698</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -19960,14 +19983,14 @@
         <v>2059</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>13206</v>
       </c>
       <c r="K64">
-        <v>13206</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <f t="shared" si="1"/>
-        <v>3292</v>
+        <v>16498</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -20038,14 +20061,14 @@
         <v>36530</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>20880</v>
       </c>
       <c r="K66">
-        <v>20880</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <f t="shared" si="1"/>
-        <v>270724</v>
+        <v>291604</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -20116,14 +20139,14 @@
         <v>3463</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="K68">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
-        <v>323244</v>
+        <v>323846</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -20155,14 +20178,14 @@
         <v>3477</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="K69">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
-        <v>321654</v>
+        <v>322205</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -20194,14 +20217,14 @@
         <v>429</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="K70">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
-        <v>938</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -20233,14 +20256,14 @@
         <v>30730</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>71847</v>
       </c>
       <c r="K71">
-        <v>71847</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
-        <v>66676</v>
+        <v>138523</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -20350,14 +20373,14 @@
         <v>69</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K74">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
-        <v>454</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -20389,14 +20412,14 @@
         <v>6187</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>45438</v>
       </c>
       <c r="K75">
-        <v>45438</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
-        <v>23530</v>
+        <v>68968</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -20428,14 +20451,14 @@
         <v>14831</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>234501</v>
       </c>
       <c r="K76">
-        <v>234501</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
-        <v>48353</v>
+        <v>282854</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -20467,14 +20490,14 @@
         <v>54180</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>35147</v>
       </c>
       <c r="K77">
-        <v>35147</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
-        <v>74764</v>
+        <v>109911</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -20506,14 +20529,14 @@
         <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>216834</v>
       </c>
       <c r="K78">
-        <v>216834</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
-        <v>216</v>
+        <v>217050</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -20545,14 +20568,14 @@
         <v>2547</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>58325</v>
       </c>
       <c r="K79">
-        <v>58325</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
-        <v>5301</v>
+        <v>63626</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -20584,14 +20607,14 @@
         <v>44707</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>198251</v>
       </c>
       <c r="K80">
-        <v>198251</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
-        <v>46532</v>
+        <v>244783</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -20623,14 +20646,14 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="K81">
-        <v>3516</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
-        <v>209</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -20662,14 +20685,14 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>157415</v>
       </c>
       <c r="K82">
-        <v>157415</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>157673</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -20701,14 +20724,14 @@
         <v>2</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>208794</v>
       </c>
       <c r="K83">
-        <v>208794</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
-        <v>214</v>
+        <v>209008</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -20740,14 +20763,14 @@
         <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>200897</v>
       </c>
       <c r="K84">
-        <v>200897</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>201114</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -20779,14 +20802,14 @@
         <v>3243</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>71773</v>
       </c>
       <c r="K85">
-        <v>71773</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
-        <v>6182</v>
+        <v>77955</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -20818,14 +20841,14 @@
         <v>51027</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>190326</v>
       </c>
       <c r="K86">
-        <v>190326</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
-        <v>52652</v>
+        <v>242978</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -20857,14 +20880,14 @@
         <v>10320</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>144461</v>
       </c>
       <c r="K87">
-        <v>144461</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
-        <v>155603</v>
+        <v>300064</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -20896,14 +20919,14 @@
         <v>39</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K88">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
-        <v>14415</v>
+        <v>14470</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -20935,14 +20958,14 @@
         <v>25021</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>90254</v>
       </c>
       <c r="K89">
-        <v>90254</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
-        <v>212947</v>
+        <v>303201</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -20974,14 +20997,14 @@
         <v>32726</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>12560</v>
       </c>
       <c r="K90">
-        <v>12560</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
-        <v>278994</v>
+        <v>291554</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -21013,14 +21036,14 @@
         <v>50613</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>22209</v>
       </c>
       <c r="K91">
-        <v>22209</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
-        <v>245933</v>
+        <v>268142</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -21052,14 +21075,14 @@
         <v>47727</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>239682</v>
       </c>
       <c r="K92">
-        <v>239682</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
-        <v>47950</v>
+        <v>287632</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -21091,14 +21114,14 @@
         <v>49332</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
-        <v>220173</v>
+        <v>220174</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -21130,14 +21153,14 @@
         <v>56672</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>55498</v>
       </c>
       <c r="K94">
-        <v>55498</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
-        <v>90378</v>
+        <v>145876</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -21169,14 +21192,14 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>4168</v>
       </c>
       <c r="K95">
-        <v>4168</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>231</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -21208,14 +21231,14 @@
         <v>151770</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>124861</v>
       </c>
       <c r="K96">
-        <v>124861</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
-        <v>218425</v>
+        <v>343286</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -21286,14 +21309,14 @@
         <v>117083</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>96426</v>
       </c>
       <c r="K98">
-        <v>96426</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
-        <v>171536</v>
+        <v>267962</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -21364,14 +21387,14 @@
         <v>10111</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="K100">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
-        <v>14883</v>
+        <v>15906</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -21403,14 +21426,14 @@
         <v>48126</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>65243</v>
       </c>
       <c r="K101">
-        <v>65243</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
-        <v>82353</v>
+        <v>147596</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -21442,14 +21465,14 @@
         <v>21904</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>67709</v>
       </c>
       <c r="K102">
-        <v>67709</v>
+        <v>0</v>
       </c>
       <c r="N102">
         <f t="shared" si="2"/>
-        <v>63426</v>
+        <v>131135</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -21559,14 +21582,14 @@
         <v>18250</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="K105">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <f t="shared" si="2"/>
-        <v>25225</v>
+        <v>26319</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -21598,14 +21621,14 @@
         <v>574</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="K106">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <f t="shared" si="2"/>
-        <v>1494</v>
+        <v>1911</v>
       </c>
     </row>
   </sheetData>
@@ -21617,8 +21640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21630,35 +21653,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" t="s">
-        <v>121</v>
+      <c r="B1" t="str">
+        <f>output.csv!B1</f>
+        <v>main</v>
+      </c>
+      <c r="C1" t="str">
+        <f>output.csv!C1</f>
+        <v>others</v>
+      </c>
+      <c r="D1" t="str">
+        <f>output.csv!D1</f>
+        <v>libFoundation</v>
+      </c>
+      <c r="E1" t="str">
+        <f>output.csv!E1</f>
+        <v>ld</v>
+      </c>
+      <c r="F1" t="str">
+        <f>output.csv!F1</f>
+        <v>vmlinux</v>
+      </c>
+      <c r="G1" t="str">
+        <f>output.csv!G1</f>
+        <v>libicu</v>
+      </c>
+      <c r="H1" t="str">
+        <f>output.csv!H1</f>
+        <v>libc</v>
+      </c>
+      <c r="I1" t="str">
+        <f>output.csv!I1</f>
+        <v>libswiftCore(others)</v>
+      </c>
+      <c r="J1" t="str">
+        <f>output.csv!J1</f>
+        <v>libswiftCore(atomicRC)</v>
+      </c>
+      <c r="K1" t="str">
+        <f>output.csv!K1</f>
+        <v>libswiftCore(nonatomicRC)</v>
       </c>
       <c r="L1" t="s">
         <v>122</v>
@@ -21712,11 +21745,11 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUM(J2:K2)</f>
+        <f t="shared" ref="L2:L33" si="0">SUM(J2:K2)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUM(B2:K2)</f>
+        <f t="shared" ref="N2:N33" si="1">SUM(B2:K2)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -21758,18 +21791,18 @@
       </c>
       <c r="J3">
         <f>output.csv!J12/SUM(output.csv!$B12:'output.csv'!$K12)</f>
-        <v>0</v>
+        <v>1.4566719829877724E-3</v>
       </c>
       <c r="K3">
         <f>output.csv!K12/SUM(output.csv!$B12:'output.csv'!$K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
         <v>1.4566719829877724E-3</v>
       </c>
-      <c r="L3">
-        <f>SUM(J3:K3)</f>
-        <v>1.4566719829877724E-3</v>
-      </c>
       <c r="N3">
-        <f>SUM(B3:K3)</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -21811,18 +21844,18 @@
       </c>
       <c r="J4">
         <f>output.csv!J17/SUM(output.csv!$B17:'output.csv'!$K17)</f>
-        <v>0</v>
+        <v>6.7960878172738828E-4</v>
       </c>
       <c r="K4">
         <f>output.csv!K17/SUM(output.csv!$B17:'output.csv'!$K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
         <v>6.7960878172738828E-4</v>
       </c>
-      <c r="L4">
-        <f>SUM(J4:K4)</f>
-        <v>6.7960878172738828E-4</v>
-      </c>
       <c r="N4">
-        <f>SUM(B4:K4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -21871,11 +21904,11 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUM(J5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUM(B5:K5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -21917,18 +21950,18 @@
       </c>
       <c r="J6">
         <f>output.csv!J19/SUM(output.csv!$B19:'output.csv'!$K19)</f>
-        <v>0</v>
+        <v>8.6496719652707512E-4</v>
       </c>
       <c r="K6">
         <f>output.csv!K19/SUM(output.csv!$B19:'output.csv'!$K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
         <v>8.6496719652707512E-4</v>
       </c>
-      <c r="L6">
-        <f>SUM(J6:K6)</f>
-        <v>8.6496719652707512E-4</v>
-      </c>
       <c r="N6">
-        <f>SUM(B6:K6)</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -21970,18 +22003,18 @@
       </c>
       <c r="J7">
         <f>output.csv!J5/SUM(output.csv!$B5:'output.csv'!$K5)</f>
-        <v>0</v>
+        <v>9.3536619586568148E-5</v>
       </c>
       <c r="K7">
         <f>output.csv!K5/SUM(output.csv!$B5:'output.csv'!$K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
         <v>9.3536619586568148E-5</v>
       </c>
-      <c r="L7">
-        <f>SUM(J7:K7)</f>
-        <v>9.3536619586568148E-5</v>
-      </c>
       <c r="N7">
-        <f>SUM(B7:K7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22023,18 +22056,18 @@
       </c>
       <c r="J8">
         <f>output.csv!J30/SUM(output.csv!$B30:'output.csv'!$K30)</f>
-        <v>0</v>
+        <v>8.5549851293714521E-2</v>
       </c>
       <c r="K8">
         <f>output.csv!K30/SUM(output.csv!$B30:'output.csv'!$K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
         <v>8.5549851293714521E-2</v>
       </c>
-      <c r="L8">
-        <f>SUM(J8:K8)</f>
-        <v>8.5549851293714521E-2</v>
-      </c>
       <c r="N8">
-        <f>SUM(B8:K8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22076,18 +22109,18 @@
       </c>
       <c r="J9">
         <f>output.csv!J26/SUM(output.csv!$B26:'output.csv'!$K26)</f>
-        <v>0</v>
+        <v>2.3781212841854932E-3</v>
       </c>
       <c r="K9">
         <f>output.csv!K26/SUM(output.csv!$B26:'output.csv'!$K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
         <v>2.3781212841854932E-3</v>
       </c>
-      <c r="L9">
-        <f>SUM(J9:K9)</f>
-        <v>2.3781212841854932E-3</v>
-      </c>
       <c r="N9">
-        <f>SUM(B9:K9)</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -22129,18 +22162,18 @@
       </c>
       <c r="J10">
         <f>output.csv!J6/SUM(output.csv!$B6:'output.csv'!$K6)</f>
-        <v>0</v>
+        <v>2.0105855751537938E-2</v>
       </c>
       <c r="K10">
         <f>output.csv!K6/SUM(output.csv!$B6:'output.csv'!$K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
         <v>2.0105855751537938E-2</v>
       </c>
-      <c r="L10">
-        <f>SUM(J10:K10)</f>
-        <v>2.0105855751537938E-2</v>
-      </c>
       <c r="N10">
-        <f>SUM(B10:K10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22182,18 +22215,18 @@
       </c>
       <c r="J11">
         <f>output.csv!J13/SUM(output.csv!$B13:'output.csv'!$K13)</f>
-        <v>0</v>
+        <v>1.2808540885587255E-2</v>
       </c>
       <c r="K11">
         <f>output.csv!K13/SUM(output.csv!$B13:'output.csv'!$K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
         <v>1.2808540885587255E-2</v>
       </c>
-      <c r="L11">
-        <f>SUM(J11:K11)</f>
-        <v>1.2808540885587255E-2</v>
-      </c>
       <c r="N11">
-        <f>SUM(B11:K11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22235,18 +22268,18 @@
       </c>
       <c r="J12">
         <f>output.csv!J21/SUM(output.csv!$B21:'output.csv'!$K21)</f>
-        <v>0</v>
+        <v>6.1538953358268596E-2</v>
       </c>
       <c r="K12">
         <f>output.csv!K21/SUM(output.csv!$B21:'output.csv'!$K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
         <v>6.1538953358268596E-2</v>
       </c>
-      <c r="L12">
-        <f>SUM(J12:K12)</f>
-        <v>6.1538953358268596E-2</v>
-      </c>
       <c r="N12">
-        <f>SUM(B12:K12)</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -22288,18 +22321,18 @@
       </c>
       <c r="J13">
         <f>output.csv!J9/SUM(output.csv!$B9:'output.csv'!$K9)</f>
-        <v>0</v>
+        <v>5.9337176764101005E-3</v>
       </c>
       <c r="K13">
         <f>output.csv!K9/SUM(output.csv!$B9:'output.csv'!$K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
         <v>5.9337176764101005E-3</v>
       </c>
-      <c r="L13">
-        <f>SUM(J13:K13)</f>
-        <v>5.9337176764101005E-3</v>
-      </c>
       <c r="N13">
-        <f>SUM(B13:K13)</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -22341,18 +22374,18 @@
       </c>
       <c r="J14">
         <f>output.csv!J11/SUM(output.csv!$B11:'output.csv'!$K11)</f>
-        <v>0</v>
+        <v>2.8607906184982029E-3</v>
       </c>
       <c r="K14">
         <f>output.csv!K11/SUM(output.csv!$B11:'output.csv'!$K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
         <v>2.8607906184982029E-3</v>
       </c>
-      <c r="L14">
-        <f>SUM(J14:K14)</f>
-        <v>2.8607906184982029E-3</v>
-      </c>
       <c r="N14">
-        <f>SUM(B14:K14)</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -22401,11 +22434,11 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <f>SUM(J15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>SUM(B15:K15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22447,18 +22480,18 @@
       </c>
       <c r="J16">
         <f>output.csv!J3/SUM(output.csv!$B3:'output.csv'!$K3)</f>
-        <v>0</v>
+        <v>0.40170942817769384</v>
       </c>
       <c r="K16">
         <f>output.csv!K3/SUM(output.csv!$B3:'output.csv'!$K3)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
         <v>0.40170942817769384</v>
       </c>
-      <c r="L16">
-        <f>SUM(J16:K16)</f>
-        <v>0.40170942817769384</v>
-      </c>
       <c r="N16">
-        <f>SUM(B16:K16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22500,18 +22533,18 @@
       </c>
       <c r="J17">
         <f>output.csv!J18/SUM(output.csv!$B18:'output.csv'!$K18)</f>
-        <v>0</v>
+        <v>0.48876793920566863</v>
       </c>
       <c r="K17">
         <f>output.csv!K18/SUM(output.csv!$B18:'output.csv'!$K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
         <v>0.48876793920566863</v>
       </c>
-      <c r="L17">
-        <f>SUM(J17:K17)</f>
-        <v>0.48876793920566863</v>
-      </c>
       <c r="N17">
-        <f>SUM(B17:K17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22553,18 +22586,18 @@
       </c>
       <c r="J18">
         <f>output.csv!J20/SUM(output.csv!$B20:'output.csv'!$K20)</f>
-        <v>0</v>
+        <v>0.46592240593672701</v>
       </c>
       <c r="K18">
         <f>output.csv!K20/SUM(output.csv!$B20:'output.csv'!$K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
         <v>0.46592240593672701</v>
       </c>
-      <c r="L18">
-        <f>SUM(J18:K18)</f>
-        <v>0.46592240593672701</v>
-      </c>
       <c r="N18">
-        <f>SUM(B18:K18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22606,18 +22639,18 @@
       </c>
       <c r="J19">
         <f>output.csv!J14/SUM(output.csv!$B14:'output.csv'!$K14)</f>
-        <v>0</v>
+        <v>0.89686421637659508</v>
       </c>
       <c r="K19">
         <f>output.csv!K14/SUM(output.csv!$B14:'output.csv'!$K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
         <v>0.89686421637659508</v>
       </c>
-      <c r="L19">
-        <f>SUM(J19:K19)</f>
-        <v>0.89686421637659508</v>
-      </c>
       <c r="N19">
-        <f>SUM(B19:K19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22659,18 +22692,18 @@
       </c>
       <c r="J20">
         <f>output.csv!J16/SUM(output.csv!$B16:'output.csv'!$K16)</f>
-        <v>0</v>
+        <v>0.5076268771636262</v>
       </c>
       <c r="K20">
         <f>output.csv!K16/SUM(output.csv!$B16:'output.csv'!$K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
         <v>0.5076268771636262</v>
       </c>
-      <c r="L20">
-        <f>SUM(J20:K20)</f>
-        <v>0.5076268771636262</v>
-      </c>
       <c r="N20">
-        <f>SUM(B20:K20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22712,18 +22745,18 @@
       </c>
       <c r="J21">
         <f>output.csv!J4/SUM(output.csv!$B4:'output.csv'!$K4)</f>
-        <v>0</v>
+        <v>0.36342285429292548</v>
       </c>
       <c r="K21">
         <f>output.csv!K4/SUM(output.csv!$B4:'output.csv'!$K4)</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
         <v>0.36342285429292548</v>
       </c>
-      <c r="L21">
-        <f>SUM(J21:K21)</f>
-        <v>0.36342285429292548</v>
-      </c>
       <c r="N21">
-        <f>SUM(B21:K21)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22765,18 +22798,18 @@
       </c>
       <c r="J22">
         <f>output.csv!J28/SUM(output.csv!$B28:'output.csv'!$K28)</f>
-        <v>0</v>
+        <v>1.7634160900095085E-2</v>
       </c>
       <c r="K22">
         <f>output.csv!K28/SUM(output.csv!$B28:'output.csv'!$K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
         <v>1.7634160900095085E-2</v>
       </c>
-      <c r="L22">
-        <f>SUM(J22:K22)</f>
-        <v>1.7634160900095085E-2</v>
-      </c>
       <c r="N22">
-        <f>SUM(B22:K22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22818,18 +22851,18 @@
       </c>
       <c r="J23">
         <f>output.csv!J46/SUM(output.csv!$B46:'output.csv'!$K46)</f>
-        <v>0</v>
+        <v>4.8543689320388345E-3</v>
       </c>
       <c r="K23">
         <f>output.csv!K46/SUM(output.csv!$B46:'output.csv'!$K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
         <v>4.8543689320388345E-3</v>
       </c>
-      <c r="L23">
-        <f>SUM(J23:K23)</f>
-        <v>4.8543689320388345E-3</v>
-      </c>
       <c r="N23">
-        <f>SUM(B23:K23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22878,11 +22911,11 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <f>SUM(J24:K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>SUM(B24:K24)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22931,11 +22964,11 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <f>SUM(J25:K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>SUM(B25:K25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -22984,11 +23017,11 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <f>SUM(J26:K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>SUM(B26:K26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -23037,11 +23070,11 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <f>SUM(J27:K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>SUM(B27:K27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -23090,11 +23123,11 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <f>SUM(J28:K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>SUM(B28:K28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -23143,11 +23176,11 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <f>SUM(J29:K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>SUM(B29:K29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -23189,18 +23222,18 @@
       </c>
       <c r="J30">
         <f>output.csv!J7/SUM(output.csv!$B7:'output.csv'!$K7)</f>
-        <v>0</v>
+        <v>7.8077181458535497E-3</v>
       </c>
       <c r="K30">
         <f>output.csv!K7/SUM(output.csv!$B7:'output.csv'!$K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
         <v>7.8077181458535497E-3</v>
       </c>
-      <c r="L30">
-        <f>SUM(J30:K30)</f>
-        <v>7.8077181458535497E-3</v>
-      </c>
       <c r="N30">
-        <f>SUM(B30:K30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -23249,11 +23282,11 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <f>SUM(J31:K31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>SUM(B31:K31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -23295,18 +23328,18 @@
       </c>
       <c r="J32">
         <f>output.csv!J8/SUM(output.csv!$B8:'output.csv'!$K8)</f>
-        <v>0</v>
+        <v>5.7716107470585885E-3</v>
       </c>
       <c r="K32">
         <f>output.csv!K8/SUM(output.csv!$B8:'output.csv'!$K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
         <v>5.7716107470585885E-3</v>
       </c>
-      <c r="L32">
-        <f>SUM(J32:K32)</f>
-        <v>5.7716107470585885E-3</v>
-      </c>
       <c r="N32">
-        <f>SUM(B32:K32)</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -23348,18 +23381,18 @@
       </c>
       <c r="J33">
         <f>output.csv!J10/SUM(output.csv!$B10:'output.csv'!$K10)</f>
-        <v>0</v>
+        <v>4.9702786779767067E-3</v>
       </c>
       <c r="K33">
         <f>output.csv!K10/SUM(output.csv!$B10:'output.csv'!$K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
         <v>4.9702786779767067E-3</v>
       </c>
-      <c r="L33">
-        <f>SUM(J33:K33)</f>
-        <v>4.9702786779767067E-3</v>
-      </c>
       <c r="N33">
-        <f>SUM(B33:K33)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -23408,11 +23441,11 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <f>SUM(J34:K34)</f>
+        <f t="shared" ref="L34:L65" si="2">SUM(J34:K34)</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>SUM(B34:K34)</f>
+        <f t="shared" ref="N34:N66" si="3">SUM(B34:K34)</f>
         <v>1</v>
       </c>
     </row>
@@ -23454,18 +23487,18 @@
       </c>
       <c r="J35">
         <f>output.csv!J49/SUM(output.csv!$B49:'output.csv'!$K49)</f>
-        <v>0</v>
+        <v>6.3128652169748056E-2</v>
       </c>
       <c r="K35">
         <f>output.csv!K49/SUM(output.csv!$B49:'output.csv'!$K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
         <v>6.3128652169748056E-2</v>
       </c>
-      <c r="L35">
-        <f>SUM(J35:K35)</f>
-        <v>6.3128652169748056E-2</v>
-      </c>
       <c r="N35">
-        <f>SUM(B35:K35)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23507,18 +23540,18 @@
       </c>
       <c r="J36">
         <f>output.csv!J40/SUM(output.csv!$B40:'output.csv'!$K40)</f>
-        <v>0</v>
+        <v>0.42172562869146929</v>
       </c>
       <c r="K36">
         <f>output.csv!K40/SUM(output.csv!$B40:'output.csv'!$K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
         <v>0.42172562869146929</v>
       </c>
-      <c r="L36">
-        <f>SUM(J36:K36)</f>
-        <v>0.42172562869146929</v>
-      </c>
       <c r="N36">
-        <f>SUM(B36:K36)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23560,18 +23593,18 @@
       </c>
       <c r="J37">
         <f>output.csv!J61/SUM(output.csv!$B61:'output.csv'!$K61)</f>
-        <v>0</v>
+        <v>0.35878372734107428</v>
       </c>
       <c r="K37">
         <f>output.csv!K61/SUM(output.csv!$B61:'output.csv'!$K61)</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
         <v>0.35878372734107428</v>
       </c>
-      <c r="L37">
-        <f>SUM(J37:K37)</f>
-        <v>0.35878372734107428</v>
-      </c>
       <c r="N37">
-        <f>SUM(B37:K37)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23613,18 +23646,18 @@
       </c>
       <c r="J38">
         <f>output.csv!J77/SUM(output.csv!$B77:'output.csv'!$K77)</f>
-        <v>0</v>
+        <v>0.31977691040933121</v>
       </c>
       <c r="K38">
         <f>output.csv!K77/SUM(output.csv!$B77:'output.csv'!$K77)</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
         <v>0.31977691040933121</v>
       </c>
-      <c r="L38">
-        <f>SUM(J38:K38)</f>
-        <v>0.31977691040933121</v>
-      </c>
       <c r="N38">
-        <f>SUM(B38:K38)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23666,18 +23699,18 @@
       </c>
       <c r="J39">
         <f>output.csv!J79/SUM(output.csv!$B79:'output.csv'!$K79)</f>
-        <v>0</v>
+        <v>0.91668500298620059</v>
       </c>
       <c r="K39">
         <f>output.csv!K79/SUM(output.csv!$B79:'output.csv'!$K79)</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
         <v>0.91668500298620059</v>
       </c>
-      <c r="L39">
-        <f>SUM(J39:K39)</f>
-        <v>0.91668500298620059</v>
-      </c>
       <c r="N39">
-        <f>SUM(B39:K39)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23719,18 +23752,18 @@
       </c>
       <c r="J40">
         <f>output.csv!J38/SUM(output.csv!$B38:'output.csv'!$K38)</f>
-        <v>0</v>
+        <v>0.28920881512030971</v>
       </c>
       <c r="K40">
         <f>output.csv!K38/SUM(output.csv!$B38:'output.csv'!$K38)</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
         <v>0.28920881512030971</v>
       </c>
-      <c r="L40">
-        <f>SUM(J40:K40)</f>
-        <v>0.28920881512030971</v>
-      </c>
       <c r="N40">
-        <f>SUM(B40:K40)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23772,18 +23805,18 @@
       </c>
       <c r="J41">
         <f>output.csv!J75/SUM(output.csv!$B75:'output.csv'!$K75)</f>
-        <v>0</v>
+        <v>0.65882728221784015</v>
       </c>
       <c r="K41">
         <f>output.csv!K75/SUM(output.csv!$B75:'output.csv'!$K75)</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
         <v>0.65882728221784015</v>
       </c>
-      <c r="L41">
-        <f>SUM(J41:K41)</f>
-        <v>0.65882728221784015</v>
-      </c>
       <c r="N41">
-        <f>SUM(B41:K41)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23825,18 +23858,18 @@
       </c>
       <c r="J42">
         <f>output.csv!J85/SUM(output.csv!$B85:'output.csv'!$K85)</f>
-        <v>0</v>
+        <v>0.9206978384965685</v>
       </c>
       <c r="K42">
         <f>output.csv!K85/SUM(output.csv!$B85:'output.csv'!$K85)</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
         <v>0.9206978384965685</v>
       </c>
-      <c r="L42">
-        <f>SUM(J42:K42)</f>
-        <v>0.9206978384965685</v>
-      </c>
       <c r="N42">
-        <f>SUM(B42:K42)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23878,18 +23911,18 @@
       </c>
       <c r="J43">
         <f>output.csv!J36/SUM(output.csv!$B36:'output.csv'!$K36)</f>
-        <v>0</v>
+        <v>0.39389876646848115</v>
       </c>
       <c r="K43">
         <f>output.csv!K36/SUM(output.csv!$B36:'output.csv'!$K36)</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
         <v>0.39389876646848115</v>
       </c>
-      <c r="L43">
-        <f>SUM(J43:K43)</f>
-        <v>0.39389876646848115</v>
-      </c>
       <c r="N43">
-        <f>SUM(B43:K43)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23931,18 +23964,18 @@
       </c>
       <c r="J44">
         <f>output.csv!J58/SUM(output.csv!$B58:'output.csv'!$K58)</f>
-        <v>0</v>
+        <v>0.49057950909124542</v>
       </c>
       <c r="K44">
         <f>output.csv!K58/SUM(output.csv!$B58:'output.csv'!$K58)</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
         <v>0.49057950909124542</v>
       </c>
-      <c r="L44">
-        <f>SUM(J44:K44)</f>
-        <v>0.49057950909124542</v>
-      </c>
       <c r="N44">
-        <f>SUM(B44:K44)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23984,18 +24017,18 @@
       </c>
       <c r="J45">
         <f>output.csv!J71/SUM(output.csv!$B71:'output.csv'!$K71)</f>
-        <v>0</v>
+        <v>0.51866477047132964</v>
       </c>
       <c r="K45">
         <f>output.csv!K71/SUM(output.csv!$B71:'output.csv'!$K71)</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
         <v>0.51866477047132964</v>
       </c>
-      <c r="L45">
-        <f>SUM(J45:K45)</f>
-        <v>0.51866477047132964</v>
-      </c>
       <c r="N45">
-        <f>SUM(B45:K45)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24037,18 +24070,18 @@
       </c>
       <c r="J46">
         <f>output.csv!J94/SUM(output.csv!$B94:'output.csv'!$K94)</f>
-        <v>0</v>
+        <v>0.38044640653705886</v>
       </c>
       <c r="K46">
         <f>output.csv!K94/SUM(output.csv!$B94:'output.csv'!$K94)</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
         <v>0.38044640653705886</v>
       </c>
-      <c r="L46">
-        <f>SUM(J46:K46)</f>
-        <v>0.38044640653705886</v>
-      </c>
       <c r="N46">
-        <f>SUM(B46:K46)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24090,18 +24123,18 @@
       </c>
       <c r="J47">
         <f>output.csv!J82/SUM(output.csv!$B82:'output.csv'!$K82)</f>
-        <v>0</v>
+        <v>0.99836370209230496</v>
       </c>
       <c r="K47">
         <f>output.csv!K82/SUM(output.csv!$B82:'output.csv'!$K82)</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
         <v>0.99836370209230496</v>
       </c>
-      <c r="L47">
-        <f>SUM(J47:K47)</f>
-        <v>0.99836370209230496</v>
-      </c>
       <c r="N47">
-        <f>SUM(B47:K47)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24143,18 +24176,18 @@
       </c>
       <c r="J48">
         <f>output.csv!J33/SUM(output.csv!$B33:'output.csv'!$K33)</f>
-        <v>0</v>
+        <v>0.20530995143523934</v>
       </c>
       <c r="K48">
         <f>output.csv!K33/SUM(output.csv!$B33:'output.csv'!$K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
         <v>0.20530995143523934</v>
       </c>
-      <c r="L48">
-        <f>SUM(J48:K48)</f>
-        <v>0.20530995143523934</v>
-      </c>
       <c r="N48">
-        <f>SUM(B48:K48)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24196,18 +24229,18 @@
       </c>
       <c r="J49">
         <f>output.csv!J93/SUM(output.csv!$B93:'output.csv'!$K93)</f>
-        <v>0</v>
+        <v>4.5418623452360407E-6</v>
       </c>
       <c r="K49">
         <f>output.csv!K93/SUM(output.csv!$B93:'output.csv'!$K93)</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
         <v>4.5418623452360407E-6</v>
       </c>
-      <c r="L49">
-        <f>SUM(J49:K49)</f>
-        <v>4.5418623452360407E-6</v>
-      </c>
       <c r="N49">
-        <f>SUM(B49:K49)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24249,18 +24282,18 @@
       </c>
       <c r="J50">
         <f>output.csv!J80/SUM(output.csv!$B80:'output.csv'!$K80)</f>
-        <v>0</v>
+        <v>0.80990509961884605</v>
       </c>
       <c r="K50">
         <f>output.csv!K80/SUM(output.csv!$B80:'output.csv'!$K80)</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
         <v>0.80990509961884605</v>
       </c>
-      <c r="L50">
-        <f>SUM(J50:K50)</f>
-        <v>0.80990509961884605</v>
-      </c>
       <c r="N50">
-        <f>SUM(B50:K50)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24302,18 +24335,18 @@
       </c>
       <c r="J51">
         <f>output.csv!J37/SUM(output.csv!$B37:'output.csv'!$K37)</f>
-        <v>0</v>
+        <v>0.51198592478557292</v>
       </c>
       <c r="K51">
         <f>output.csv!K37/SUM(output.csv!$B37:'output.csv'!$K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
         <v>0.51198592478557292</v>
       </c>
-      <c r="L51">
-        <f>SUM(J51:K51)</f>
-        <v>0.51198592478557292</v>
-      </c>
       <c r="N51">
-        <f>SUM(B51:K51)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24355,18 +24388,18 @@
       </c>
       <c r="J52">
         <f>output.csv!J60/SUM(output.csv!$B60:'output.csv'!$K60)</f>
-        <v>0</v>
+        <v>0.56735168048712092</v>
       </c>
       <c r="K52">
         <f>output.csv!K60/SUM(output.csv!$B60:'output.csv'!$K60)</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
         <v>0.56735168048712092</v>
       </c>
-      <c r="L52">
-        <f>SUM(J52:K52)</f>
-        <v>0.56735168048712092</v>
-      </c>
       <c r="N52">
-        <f>SUM(B52:K52)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24408,18 +24441,18 @@
       </c>
       <c r="J53">
         <f>output.csv!J41/SUM(output.csv!$B41:'output.csv'!$K41)</f>
-        <v>0</v>
+        <v>0.82997182263087643</v>
       </c>
       <c r="K53">
         <f>output.csv!K41/SUM(output.csv!$B41:'output.csv'!$K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
         <v>0.82997182263087643</v>
       </c>
-      <c r="L53">
-        <f>SUM(J53:K53)</f>
-        <v>0.82997182263087643</v>
-      </c>
       <c r="N53">
-        <f>SUM(B53:K53)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24461,18 +24494,18 @@
       </c>
       <c r="J54">
         <f>output.csv!J34/SUM(output.csv!$B34:'output.csv'!$K34)</f>
-        <v>0</v>
+        <v>0.35050472184132442</v>
       </c>
       <c r="K54">
         <f>output.csv!K34/SUM(output.csv!$B34:'output.csv'!$K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
         <v>0.35050472184132442</v>
       </c>
-      <c r="L54">
-        <f>SUM(J54:K54)</f>
-        <v>0.35050472184132442</v>
-      </c>
       <c r="N54">
-        <f>SUM(B54:K54)</f>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -24514,18 +24547,18 @@
       </c>
       <c r="J55">
         <f>output.csv!J98/SUM(output.csv!$B98:'output.csv'!$K98)</f>
-        <v>0</v>
+        <v>0.35984953090363558</v>
       </c>
       <c r="K55">
         <f>output.csv!K98/SUM(output.csv!$B98:'output.csv'!$K98)</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
         <v>0.35984953090363558</v>
       </c>
-      <c r="L55">
-        <f>SUM(J55:K55)</f>
-        <v>0.35984953090363558</v>
-      </c>
       <c r="N55">
-        <f>SUM(B55:K55)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24567,18 +24600,18 @@
       </c>
       <c r="J56">
         <f>output.csv!J91/SUM(output.csv!$B91:'output.csv'!$K91)</f>
-        <v>0</v>
+        <v>8.2825517822646216E-2</v>
       </c>
       <c r="K56">
         <f>output.csv!K91/SUM(output.csv!$B91:'output.csv'!$K91)</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
         <v>8.2825517822646216E-2</v>
       </c>
-      <c r="L56">
-        <f>SUM(J56:K56)</f>
-        <v>8.2825517822646216E-2</v>
-      </c>
       <c r="N56">
-        <f>SUM(B56:K56)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24620,18 +24653,18 @@
       </c>
       <c r="J57">
         <f>output.csv!J92/SUM(output.csv!$B92:'output.csv'!$K92)</f>
-        <v>0</v>
+        <v>0.83329393113422712</v>
       </c>
       <c r="K57">
         <f>output.csv!K92/SUM(output.csv!$B92:'output.csv'!$K92)</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
         <v>0.83329393113422712</v>
       </c>
-      <c r="L57">
-        <f>SUM(J57:K57)</f>
-        <v>0.83329393113422712</v>
-      </c>
       <c r="N57">
-        <f>SUM(B57:K57)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24680,11 +24713,11 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <f>SUM(J58:K58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N58">
-        <f>SUM(B58:K58)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24733,11 +24766,11 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <f>SUM(J59:K59)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <f>SUM(B59:K59)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24786,11 +24819,11 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <f>SUM(J60:K60)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N60">
-        <f>SUM(B60:K60)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24832,18 +24865,18 @@
       </c>
       <c r="J61">
         <f>output.csv!J31/SUM(output.csv!$B31:'output.csv'!$K31)</f>
-        <v>0</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="K61">
         <f>output.csv!K31/SUM(output.csv!$B31:'output.csv'!$K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="L61">
-        <f>SUM(J61:K61)</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
       <c r="N61">
-        <f>SUM(B61:K61)</f>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -24892,11 +24925,11 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <f>SUM(J62:K62)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>SUM(B62:K62)</f>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -24938,18 +24971,18 @@
       </c>
       <c r="J63">
         <f>output.csv!J70/SUM(output.csv!$B70:'output.csv'!$K70)</f>
-        <v>0</v>
+        <v>0.24293785310734464</v>
       </c>
       <c r="K63">
         <f>output.csv!K70/SUM(output.csv!$B70:'output.csv'!$K70)</f>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
         <v>0.24293785310734464</v>
       </c>
-      <c r="L63">
-        <f>SUM(J63:K63)</f>
-        <v>0.24293785310734464</v>
-      </c>
       <c r="N63">
-        <f>SUM(B63:K63)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -24991,18 +25024,18 @@
       </c>
       <c r="J64">
         <f>output.csv!J106/SUM(output.csv!$B106:'output.csv'!$K106)</f>
-        <v>0</v>
+        <v>0.21821036106750394</v>
       </c>
       <c r="K64">
         <f>output.csv!K106/SUM(output.csv!$B106:'output.csv'!$K106)</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
         <v>0.21821036106750394</v>
       </c>
-      <c r="L64">
-        <f>SUM(J64:K64)</f>
-        <v>0.21821036106750394</v>
-      </c>
       <c r="N64">
-        <f>SUM(B64:K64)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -25044,18 +25077,18 @@
       </c>
       <c r="J65">
         <f>output.csv!J81/SUM(output.csv!$B81:'output.csv'!$K81)</f>
-        <v>0</v>
+        <v>0.94389261744966446</v>
       </c>
       <c r="K65">
         <f>output.csv!K81/SUM(output.csv!$B81:'output.csv'!$K81)</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
         <v>0.94389261744966446</v>
       </c>
-      <c r="L65">
-        <f>SUM(J65:K65)</f>
-        <v>0.94389261744966446</v>
-      </c>
       <c r="N65">
-        <f>SUM(B65:K65)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -25097,18 +25130,18 @@
       </c>
       <c r="J66">
         <f>output.csv!J62/SUM(output.csv!$B62:'output.csv'!$K62)</f>
-        <v>0</v>
+        <v>0.95305255023183921</v>
       </c>
       <c r="K66">
         <f>output.csv!K62/SUM(output.csv!$B62:'output.csv'!$K62)</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L97" si="4">SUM(J66:K66)</f>
         <v>0.95305255023183921</v>
       </c>
-      <c r="L66">
-        <f>SUM(J66:K66)</f>
-        <v>0.95305255023183921</v>
-      </c>
       <c r="N66">
-        <f>SUM(B66:K66)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -25150,18 +25183,18 @@
       </c>
       <c r="J67">
         <f>output.csv!J88/SUM(output.csv!$B88:'output.csv'!$K88)</f>
-        <v>0</v>
+        <v>3.8009675190048375E-3</v>
       </c>
       <c r="K67">
         <f>output.csv!K88/SUM(output.csv!$B88:'output.csv'!$K88)</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
         <v>3.8009675190048375E-3</v>
       </c>
-      <c r="L67">
-        <f>SUM(J67:K67)</f>
-        <v>3.8009675190048375E-3</v>
-      </c>
       <c r="N67">
-        <f t="shared" ref="N67:N106" si="0">SUM(B67:K67)</f>
+        <f t="shared" ref="N67:N106" si="5">SUM(B67:K67)</f>
         <v>1</v>
       </c>
     </row>
@@ -25203,18 +25236,18 @@
       </c>
       <c r="J68">
         <f>output.csv!J50/SUM(output.csv!$B50:'output.csv'!$K50)</f>
-        <v>0</v>
+        <v>0.99052239141175946</v>
       </c>
       <c r="K68">
         <f>output.csv!K50/SUM(output.csv!$B50:'output.csv'!$K50)</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
         <v>0.99052239141175946</v>
       </c>
-      <c r="L68">
-        <f>SUM(J68:K68)</f>
-        <v>0.99052239141175946</v>
-      </c>
       <c r="N68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25256,18 +25289,18 @@
       </c>
       <c r="J69">
         <f>output.csv!J47/SUM(output.csv!$B47:'output.csv'!$K47)</f>
-        <v>0</v>
+        <v>0.72527882582196612</v>
       </c>
       <c r="K69">
         <f>output.csv!K47/SUM(output.csv!$B47:'output.csv'!$K47)</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
         <v>0.72527882582196612</v>
       </c>
-      <c r="L69">
-        <f>SUM(J69:K69)</f>
-        <v>0.72527882582196612</v>
-      </c>
       <c r="N69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25309,18 +25342,18 @@
       </c>
       <c r="J70">
         <f>output.csv!J86/SUM(output.csv!$B86:'output.csv'!$K86)</f>
-        <v>0</v>
+        <v>0.78330548444715165</v>
       </c>
       <c r="K70">
         <f>output.csv!K86/SUM(output.csv!$B86:'output.csv'!$K86)</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="4"/>
         <v>0.78330548444715165</v>
       </c>
-      <c r="L70">
-        <f>SUM(J70:K70)</f>
-        <v>0.78330548444715165</v>
-      </c>
       <c r="N70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25362,18 +25395,18 @@
       </c>
       <c r="J71">
         <f>output.csv!J39/SUM(output.csv!$B39:'output.csv'!$K39)</f>
-        <v>0</v>
+        <v>0.37380311324287219</v>
       </c>
       <c r="K71">
         <f>output.csv!K39/SUM(output.csv!$B39:'output.csv'!$K39)</f>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="4"/>
         <v>0.37380311324287219</v>
       </c>
-      <c r="L71">
-        <f>SUM(J71:K71)</f>
-        <v>0.37380311324287219</v>
-      </c>
       <c r="N71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25415,18 +25448,18 @@
       </c>
       <c r="J72">
         <f>output.csv!J68/SUM(output.csv!$B68:'output.csv'!$K68)</f>
-        <v>0</v>
+        <v>1.858908246512231E-3</v>
       </c>
       <c r="K72">
         <f>output.csv!K68/SUM(output.csv!$B68:'output.csv'!$K68)</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
         <v>1.858908246512231E-3</v>
       </c>
-      <c r="L72">
-        <f>SUM(J72:K72)</f>
-        <v>1.858908246512231E-3</v>
-      </c>
       <c r="N72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25468,18 +25501,18 @@
       </c>
       <c r="J73">
         <f>output.csv!J44/SUM(output.csv!$B44:'output.csv'!$K44)</f>
-        <v>0</v>
+        <v>0.20282146731091608</v>
       </c>
       <c r="K73">
         <f>output.csv!K44/SUM(output.csv!$B44:'output.csv'!$K44)</f>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
         <v>0.20282146731091608</v>
       </c>
-      <c r="L73">
-        <f>SUM(J73:K73)</f>
-        <v>0.20282146731091608</v>
-      </c>
       <c r="N73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25521,18 +25554,18 @@
       </c>
       <c r="J74">
         <f>output.csv!J96/SUM(output.csv!$B96:'output.csv'!$K96)</f>
-        <v>0</v>
+        <v>0.36372295986436964</v>
       </c>
       <c r="K74">
         <f>output.csv!K96/SUM(output.csv!$B96:'output.csv'!$K96)</f>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
         <v>0.36372295986436964</v>
       </c>
-      <c r="L74">
-        <f>SUM(J74:K74)</f>
-        <v>0.36372295986436964</v>
-      </c>
       <c r="N74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25581,11 +25614,11 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <f>SUM(J75:K75)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25634,11 +25667,11 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <f>SUM(J76:K76)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25687,11 +25720,11 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <f>SUM(J77:K77)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -25733,18 +25766,18 @@
       </c>
       <c r="J78">
         <f>output.csv!J100/SUM(output.csv!$B100:'output.csv'!$K100)</f>
-        <v>0</v>
+        <v>6.4315352697095429E-2</v>
       </c>
       <c r="K78">
         <f>output.csv!K100/SUM(output.csv!$B100:'output.csv'!$K100)</f>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="4"/>
         <v>6.4315352697095429E-2</v>
       </c>
-      <c r="L78">
-        <f>SUM(J78:K78)</f>
-        <v>6.4315352697095429E-2</v>
-      </c>
       <c r="N78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25793,11 +25826,11 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <f>SUM(J79:K79)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25839,18 +25872,18 @@
       </c>
       <c r="J80">
         <f>output.csv!J51/SUM(output.csv!$B51:'output.csv'!$K51)</f>
-        <v>0</v>
+        <v>0.28011015643697185</v>
       </c>
       <c r="K80">
         <f>output.csv!K51/SUM(output.csv!$B51:'output.csv'!$K51)</f>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="4"/>
         <v>0.28011015643697185</v>
       </c>
-      <c r="L80">
-        <f>SUM(J80:K80)</f>
-        <v>0.28011015643697185</v>
-      </c>
       <c r="N80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25892,18 +25925,18 @@
       </c>
       <c r="J81">
         <f>output.csv!J78/SUM(output.csv!$B78:'output.csv'!$K78)</f>
-        <v>0</v>
+        <v>0.99900483759502423</v>
       </c>
       <c r="K81">
         <f>output.csv!K78/SUM(output.csv!$B78:'output.csv'!$K78)</f>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
         <v>0.99900483759502423</v>
       </c>
-      <c r="L81">
-        <f>SUM(J81:K81)</f>
-        <v>0.99900483759502423</v>
-      </c>
       <c r="N81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25945,18 +25978,18 @@
       </c>
       <c r="J82">
         <f>output.csv!J59/SUM(output.csv!$B59:'output.csv'!$K59)</f>
-        <v>0</v>
+        <v>7.5125835774922996E-4</v>
       </c>
       <c r="K82">
         <f>output.csv!K59/SUM(output.csv!$B59:'output.csv'!$K59)</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="4"/>
         <v>7.5125835774922996E-4</v>
       </c>
-      <c r="L82">
-        <f>SUM(J82:K82)</f>
-        <v>7.5125835774922996E-4</v>
-      </c>
       <c r="N82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -25998,18 +26031,18 @@
       </c>
       <c r="J83">
         <f>output.csv!J101/SUM(output.csv!$B101:'output.csv'!$K101)</f>
-        <v>0</v>
+        <v>0.44203772459958263</v>
       </c>
       <c r="K83">
         <f>output.csv!K101/SUM(output.csv!$B101:'output.csv'!$K101)</f>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="4"/>
         <v>0.44203772459958263</v>
       </c>
-      <c r="L83">
-        <f>SUM(J83:K83)</f>
-        <v>0.44203772459958263</v>
-      </c>
       <c r="N83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26051,18 +26084,18 @@
       </c>
       <c r="J84">
         <f>output.csv!J83/SUM(output.csv!$B83:'output.csv'!$K83)</f>
-        <v>0</v>
+        <v>0.9989761157467657</v>
       </c>
       <c r="K84">
         <f>output.csv!K83/SUM(output.csv!$B83:'output.csv'!$K83)</f>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="4"/>
         <v>0.9989761157467657</v>
       </c>
-      <c r="L84">
-        <f>SUM(J84:K84)</f>
-        <v>0.9989761157467657</v>
-      </c>
       <c r="N84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26104,18 +26137,18 @@
       </c>
       <c r="J85">
         <f>output.csv!J43/SUM(output.csv!$B43:'output.csv'!$K43)</f>
-        <v>0</v>
+        <v>0.7924365671641791</v>
       </c>
       <c r="K85">
         <f>output.csv!K43/SUM(output.csv!$B43:'output.csv'!$K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="4"/>
         <v>0.7924365671641791</v>
       </c>
-      <c r="L85">
-        <f>SUM(J85:K85)</f>
-        <v>0.7924365671641791</v>
-      </c>
       <c r="N85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26157,18 +26190,18 @@
       </c>
       <c r="J86">
         <f>output.csv!J48/SUM(output.csv!$B48:'output.csv'!$K48)</f>
-        <v>0</v>
+        <v>0.42854400835329526</v>
       </c>
       <c r="K86">
         <f>output.csv!K48/SUM(output.csv!$B48:'output.csv'!$K48)</f>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="4"/>
         <v>0.42854400835329526</v>
       </c>
-      <c r="L86">
-        <f>SUM(J86:K86)</f>
-        <v>0.42854400835329526</v>
-      </c>
       <c r="N86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26210,18 +26243,18 @@
       </c>
       <c r="J87">
         <f>output.csv!J89/SUM(output.csv!$B89:'output.csv'!$K89)</f>
-        <v>0</v>
+        <v>0.29767052219484763</v>
       </c>
       <c r="K87">
         <f>output.csv!K89/SUM(output.csv!$B89:'output.csv'!$K89)</f>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
         <v>0.29767052219484763</v>
       </c>
-      <c r="L87">
-        <f>SUM(J87:K87)</f>
-        <v>0.29767052219484763</v>
-      </c>
       <c r="N87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26263,18 +26296,18 @@
       </c>
       <c r="J88">
         <f>output.csv!J76/SUM(output.csv!$B76:'output.csv'!$K76)</f>
-        <v>0</v>
+        <v>0.82905315109561828</v>
       </c>
       <c r="K88">
         <f>output.csv!K76/SUM(output.csv!$B76:'output.csv'!$K76)</f>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="4"/>
         <v>0.82905315109561828</v>
       </c>
-      <c r="L88">
-        <f>SUM(J88:K88)</f>
-        <v>0.82905315109561828</v>
-      </c>
       <c r="N88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26316,18 +26349,18 @@
       </c>
       <c r="J89">
         <f>output.csv!J53/SUM(output.csv!$B53:'output.csv'!$K53)</f>
-        <v>0</v>
+        <v>0.99926293968609126</v>
       </c>
       <c r="K89">
         <f>output.csv!K53/SUM(output.csv!$B53:'output.csv'!$K53)</f>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="4"/>
         <v>0.99926293968609126</v>
       </c>
-      <c r="L89">
-        <f>SUM(J89:K89)</f>
-        <v>0.99926293968609126</v>
-      </c>
       <c r="N89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26369,18 +26402,18 @@
       </c>
       <c r="J90">
         <f>output.csv!J63/SUM(output.csv!$B63:'output.csv'!$K63)</f>
-        <v>0</v>
+        <v>0.34376216047941471</v>
       </c>
       <c r="K90">
         <f>output.csv!K63/SUM(output.csv!$B63:'output.csv'!$K63)</f>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="4"/>
         <v>0.34376216047941471</v>
       </c>
-      <c r="L90">
-        <f>SUM(J90:K90)</f>
-        <v>0.34376216047941471</v>
-      </c>
       <c r="N90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26429,11 +26462,11 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <f>SUM(J91:K91)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26475,18 +26508,18 @@
       </c>
       <c r="J92">
         <f>output.csv!J87/SUM(output.csv!$B87:'output.csv'!$K87)</f>
-        <v>0</v>
+        <v>0.48143396075503891</v>
       </c>
       <c r="K92">
         <f>output.csv!K87/SUM(output.csv!$B87:'output.csv'!$K87)</f>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="4"/>
         <v>0.48143396075503891</v>
       </c>
-      <c r="L92">
-        <f>SUM(J92:K92)</f>
-        <v>0.48143396075503891</v>
-      </c>
       <c r="N92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26528,18 +26561,18 @@
       </c>
       <c r="J93">
         <f>output.csv!J35/SUM(output.csv!$B35:'output.csv'!$K35)</f>
-        <v>0</v>
+        <v>0.41643779181543533</v>
       </c>
       <c r="K93">
         <f>output.csv!K35/SUM(output.csv!$B35:'output.csv'!$K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="4"/>
         <v>0.41643779181543533</v>
       </c>
-      <c r="L93">
-        <f>SUM(J93:K93)</f>
-        <v>0.41643779181543533</v>
-      </c>
       <c r="N93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26581,18 +26614,18 @@
       </c>
       <c r="J94">
         <f>output.csv!J69/SUM(output.csv!$B69:'output.csv'!$K69)</f>
-        <v>0</v>
+        <v>1.7100914014369735E-3</v>
       </c>
       <c r="K94">
         <f>output.csv!K69/SUM(output.csv!$B69:'output.csv'!$K69)</f>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="4"/>
         <v>1.7100914014369735E-3</v>
       </c>
-      <c r="L94">
-        <f>SUM(J94:K94)</f>
-        <v>1.7100914014369735E-3</v>
-      </c>
       <c r="N94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26634,18 +26667,18 @@
       </c>
       <c r="J95">
         <f>output.csv!J52/SUM(output.csv!$B52:'output.csv'!$K52)</f>
-        <v>0</v>
+        <v>5.2598358931201344E-5</v>
       </c>
       <c r="K95">
         <f>output.csv!K52/SUM(output.csv!$B52:'output.csv'!$K52)</f>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="4"/>
         <v>5.2598358931201344E-5</v>
       </c>
-      <c r="L95">
-        <f>SUM(J95:K95)</f>
-        <v>5.2598358931201344E-5</v>
-      </c>
       <c r="N95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26694,11 +26727,11 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <f>SUM(J96:K96)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -26740,18 +26773,18 @@
       </c>
       <c r="J97">
         <f>output.csv!J54/SUM(output.csv!$B54:'output.csv'!$K54)</f>
-        <v>0</v>
+        <v>6.1729741520340276E-2</v>
       </c>
       <c r="K97">
         <f>output.csv!K54/SUM(output.csv!$B54:'output.csv'!$K54)</f>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="4"/>
         <v>6.1729741520340276E-2</v>
       </c>
-      <c r="L97">
-        <f>SUM(J97:K97)</f>
-        <v>6.1729741520340276E-2</v>
-      </c>
       <c r="N97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26793,18 +26826,18 @@
       </c>
       <c r="J98">
         <f>output.csv!J64/SUM(output.csv!$B64:'output.csv'!$K64)</f>
-        <v>0</v>
+        <v>0.80046066189841192</v>
       </c>
       <c r="K98">
         <f>output.csv!K64/SUM(output.csv!$B64:'output.csv'!$K64)</f>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ref="L98:L106" si="6">SUM(J98:K98)</f>
         <v>0.80046066189841192</v>
       </c>
-      <c r="L98">
-        <f>SUM(J98:K98)</f>
-        <v>0.80046066189841192</v>
-      </c>
       <c r="N98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26846,18 +26879,18 @@
       </c>
       <c r="J99">
         <f>output.csv!J66/SUM(output.csv!$B66:'output.csv'!$K66)</f>
-        <v>0</v>
+        <v>7.1603956049985595E-2</v>
       </c>
       <c r="K99">
         <f>output.csv!K66/SUM(output.csv!$B66:'output.csv'!$K66)</f>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="6"/>
         <v>7.1603956049985595E-2</v>
       </c>
-      <c r="L99">
-        <f>SUM(J99:K99)</f>
-        <v>7.1603956049985595E-2</v>
-      </c>
       <c r="N99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26906,11 +26939,11 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <f>SUM(J100:K100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26952,18 +26985,18 @@
       </c>
       <c r="J101">
         <f>output.csv!J74/SUM(output.csv!$B74:'output.csv'!$K74)</f>
-        <v>0</v>
+        <v>0.21453287197231835</v>
       </c>
       <c r="K101">
         <f>output.csv!K74/SUM(output.csv!$B74:'output.csv'!$K74)</f>
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="6"/>
         <v>0.21453287197231835</v>
       </c>
-      <c r="L101">
-        <f>SUM(J101:K101)</f>
-        <v>0.21453287197231835</v>
-      </c>
       <c r="N101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -27005,18 +27038,18 @@
       </c>
       <c r="J102">
         <f>output.csv!J84/SUM(output.csv!$B84:'output.csv'!$K84)</f>
-        <v>0</v>
+        <v>0.99892100997444233</v>
       </c>
       <c r="K102">
         <f>output.csv!K84/SUM(output.csv!$B84:'output.csv'!$K84)</f>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="6"/>
         <v>0.99892100997444233</v>
       </c>
-      <c r="L102">
-        <f>SUM(J102:K102)</f>
-        <v>0.99892100997444233</v>
-      </c>
       <c r="N102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -27058,18 +27091,18 @@
       </c>
       <c r="J103">
         <f>output.csv!J90/SUM(output.csv!$B90:'output.csv'!$K90)</f>
-        <v>0</v>
+        <v>4.3079498137566286E-2</v>
       </c>
       <c r="K103">
         <f>output.csv!K90/SUM(output.csv!$B90:'output.csv'!$K90)</f>
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="6"/>
         <v>4.3079498137566286E-2</v>
       </c>
-      <c r="L103">
-        <f>SUM(J103:K103)</f>
-        <v>4.3079498137566286E-2</v>
-      </c>
       <c r="N103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -27111,18 +27144,18 @@
       </c>
       <c r="J104">
         <f>output.csv!J95/SUM(output.csv!$B95:'output.csv'!$K95)</f>
-        <v>0</v>
+        <v>0.94748806546942488</v>
       </c>
       <c r="K104">
         <f>output.csv!K95/SUM(output.csv!$B95:'output.csv'!$K95)</f>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="6"/>
         <v>0.94748806546942488</v>
       </c>
-      <c r="L104">
-        <f>SUM(J104:K104)</f>
-        <v>0.94748806546942488</v>
-      </c>
       <c r="N104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -27164,18 +27197,18 @@
       </c>
       <c r="J105">
         <f>output.csv!J102/SUM(output.csv!$B102:'output.csv'!$K102)</f>
-        <v>0</v>
+        <v>0.51633049910397677</v>
       </c>
       <c r="K105">
         <f>output.csv!K102/SUM(output.csv!$B102:'output.csv'!$K102)</f>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="6"/>
         <v>0.51633049910397677</v>
       </c>
-      <c r="L105">
-        <f>SUM(J105:K105)</f>
-        <v>0.51633049910397677</v>
-      </c>
       <c r="N105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -27217,18 +27250,18 @@
       </c>
       <c r="J106">
         <f>output.csv!J105/SUM(output.csv!$B105:'output.csv'!$K105)</f>
-        <v>0</v>
+        <v>4.1566928834682167E-2</v>
       </c>
       <c r="K106">
         <f>output.csv!K105/SUM(output.csv!$B105:'output.csv'!$K105)</f>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="6"/>
         <v>4.1566928834682167E-2</v>
       </c>
-      <c r="L106">
-        <f>SUM(J106:K106)</f>
-        <v>4.1566928834682167E-2</v>
-      </c>
       <c r="N106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -27259,7 +27292,7 @@
   <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27269,35 +27302,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" t="s">
-        <v>121</v>
+      <c r="B1" t="str">
+        <f>output.csv!B1</f>
+        <v>main</v>
+      </c>
+      <c r="C1" t="str">
+        <f>output.csv!C1</f>
+        <v>others</v>
+      </c>
+      <c r="D1" t="str">
+        <f>output.csv!D1</f>
+        <v>libFoundation</v>
+      </c>
+      <c r="E1" t="str">
+        <f>output.csv!E1</f>
+        <v>ld</v>
+      </c>
+      <c r="F1" t="str">
+        <f>output.csv!F1</f>
+        <v>vmlinux</v>
+      </c>
+      <c r="G1" t="str">
+        <f>output.csv!G1</f>
+        <v>libicu</v>
+      </c>
+      <c r="H1" t="str">
+        <f>output.csv!H1</f>
+        <v>libc</v>
+      </c>
+      <c r="I1" t="str">
+        <f>output.csv!I1</f>
+        <v>libswiftCore(others)</v>
+      </c>
+      <c r="J1" t="str">
+        <f>output.csv!J1</f>
+        <v>libswiftCore(atomicRC)</v>
+      </c>
+      <c r="K1" t="str">
+        <f>output.csv!K1</f>
+        <v>libswiftCore(nonatomicRC)</v>
       </c>
       <c r="L1" t="s">
         <v>122</v>
@@ -27351,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUM(J2:K2)</f>
+        <f t="shared" ref="L2:L33" si="0">SUM(J2:K2)</f>
         <v>0</v>
       </c>
       <c r="N2">
@@ -27404,11 +27447,11 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f>SUM(J3:K3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">SUM(B3:K3)</f>
+        <f t="shared" ref="N3:N66" si="1">SUM(B3:K3)</f>
         <v>1</v>
       </c>
     </row>
@@ -27457,11 +27500,11 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUM(J4:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27510,11 +27553,11 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUM(J5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27563,11 +27606,11 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUM(J6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27616,11 +27659,11 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUM(J7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27669,11 +27712,11 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f>SUM(J8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27722,11 +27765,11 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUM(J9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27775,11 +27818,11 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUM(J10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27828,11 +27871,11 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUM(J11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27881,11 +27924,11 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUM(J12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27934,11 +27977,11 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <f>SUM(J13:K13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27987,11 +28030,11 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <f>SUM(J14:K14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28040,11 +28083,11 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <f>SUM(J15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28093,11 +28136,11 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <f>SUM(J16:K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -28146,11 +28189,11 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <f>SUM(J17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28199,11 +28242,11 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <f>SUM(J18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28252,11 +28295,11 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <f>SUM(J19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -28305,11 +28348,11 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <f>SUM(J20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28358,11 +28401,11 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <f>SUM(J21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28411,11 +28454,11 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <f>SUM(J22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -28464,11 +28507,11 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <f>SUM(J23:K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28510,18 +28553,18 @@
       </c>
       <c r="J24">
         <f>output.csv!J93/SUM(output.csv!$B93:'output.csv'!$K93)</f>
-        <v>0</v>
+        <v>4.5418623452360407E-6</v>
       </c>
       <c r="K24">
         <f>output.csv!K93/SUM(output.csv!$B93:'output.csv'!$K93)</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
         <v>4.5418623452360407E-6</v>
       </c>
-      <c r="L24">
-        <f>SUM(J24:K24)</f>
-        <v>4.5418623452360407E-6</v>
-      </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28563,18 +28606,18 @@
       </c>
       <c r="J25">
         <f>output.csv!J52/SUM(output.csv!$B52:'output.csv'!$K52)</f>
-        <v>0</v>
+        <v>5.2598358931201344E-5</v>
       </c>
       <c r="K25">
         <f>output.csv!K52/SUM(output.csv!$B52:'output.csv'!$K52)</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
         <v>5.2598358931201344E-5</v>
       </c>
-      <c r="L25">
-        <f>SUM(J25:K25)</f>
-        <v>5.2598358931201344E-5</v>
-      </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28616,18 +28659,18 @@
       </c>
       <c r="J26">
         <f>output.csv!J5/SUM(output.csv!$B5:'output.csv'!$K5)</f>
-        <v>0</v>
+        <v>9.3536619586568148E-5</v>
       </c>
       <c r="K26">
         <f>output.csv!K5/SUM(output.csv!$B5:'output.csv'!$K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
         <v>9.3536619586568148E-5</v>
       </c>
-      <c r="L26">
-        <f>SUM(J26:K26)</f>
-        <v>9.3536619586568148E-5</v>
-      </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28669,18 +28712,18 @@
       </c>
       <c r="J27">
         <f>output.csv!J17/SUM(output.csv!$B17:'output.csv'!$K17)</f>
-        <v>0</v>
+        <v>6.7960878172738828E-4</v>
       </c>
       <c r="K27">
         <f>output.csv!K17/SUM(output.csv!$B17:'output.csv'!$K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
         <v>6.7960878172738828E-4</v>
       </c>
-      <c r="L27">
-        <f>SUM(J27:K27)</f>
-        <v>6.7960878172738828E-4</v>
-      </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28722,18 +28765,18 @@
       </c>
       <c r="J28">
         <f>output.csv!J59/SUM(output.csv!$B59:'output.csv'!$K59)</f>
-        <v>0</v>
+        <v>7.5125835774922996E-4</v>
       </c>
       <c r="K28">
         <f>output.csv!K59/SUM(output.csv!$B59:'output.csv'!$K59)</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
         <v>7.5125835774922996E-4</v>
       </c>
-      <c r="L28">
-        <f>SUM(J28:K28)</f>
-        <v>7.5125835774922996E-4</v>
-      </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28775,18 +28818,18 @@
       </c>
       <c r="J29">
         <f>output.csv!J19/SUM(output.csv!$B19:'output.csv'!$K19)</f>
-        <v>0</v>
+        <v>8.6496719652707512E-4</v>
       </c>
       <c r="K29">
         <f>output.csv!K19/SUM(output.csv!$B19:'output.csv'!$K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
         <v>8.6496719652707512E-4</v>
       </c>
-      <c r="L29">
-        <f>SUM(J29:K29)</f>
-        <v>8.6496719652707512E-4</v>
-      </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -28828,18 +28871,18 @@
       </c>
       <c r="J30">
         <f>output.csv!J12/SUM(output.csv!$B12:'output.csv'!$K12)</f>
-        <v>0</v>
+        <v>1.4566719829877724E-3</v>
       </c>
       <c r="K30">
         <f>output.csv!K12/SUM(output.csv!$B12:'output.csv'!$K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
         <v>1.4566719829877724E-3</v>
       </c>
-      <c r="L30">
-        <f>SUM(J30:K30)</f>
-        <v>1.4566719829877724E-3</v>
-      </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -28881,18 +28924,18 @@
       </c>
       <c r="J31">
         <f>output.csv!J69/SUM(output.csv!$B69:'output.csv'!$K69)</f>
-        <v>0</v>
+        <v>1.7100914014369735E-3</v>
       </c>
       <c r="K31">
         <f>output.csv!K69/SUM(output.csv!$B69:'output.csv'!$K69)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
         <v>1.7100914014369735E-3</v>
       </c>
-      <c r="L31">
-        <f>SUM(J31:K31)</f>
-        <v>1.7100914014369735E-3</v>
-      </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28934,18 +28977,18 @@
       </c>
       <c r="J32">
         <f>output.csv!J68/SUM(output.csv!$B68:'output.csv'!$K68)</f>
-        <v>0</v>
+        <v>1.858908246512231E-3</v>
       </c>
       <c r="K32">
         <f>output.csv!K68/SUM(output.csv!$B68:'output.csv'!$K68)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
         <v>1.858908246512231E-3</v>
       </c>
-      <c r="L32">
-        <f>SUM(J32:K32)</f>
-        <v>1.858908246512231E-3</v>
-      </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -28987,18 +29030,18 @@
       </c>
       <c r="J33">
         <f>output.csv!J26/SUM(output.csv!$B26:'output.csv'!$K26)</f>
-        <v>0</v>
+        <v>2.3781212841854932E-3</v>
       </c>
       <c r="K33">
         <f>output.csv!K26/SUM(output.csv!$B26:'output.csv'!$K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
         <v>2.3781212841854932E-3</v>
       </c>
-      <c r="L33">
-        <f>SUM(J33:K33)</f>
-        <v>2.3781212841854932E-3</v>
-      </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -29040,18 +29083,18 @@
       </c>
       <c r="J34">
         <f>output.csv!J11/SUM(output.csv!$B11:'output.csv'!$K11)</f>
-        <v>0</v>
+        <v>2.8607906184982029E-3</v>
       </c>
       <c r="K34">
         <f>output.csv!K11/SUM(output.csv!$B11:'output.csv'!$K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L65" si="2">SUM(J34:K34)</f>
         <v>2.8607906184982029E-3</v>
       </c>
-      <c r="L34">
-        <f>SUM(J34:K34)</f>
-        <v>2.8607906184982029E-3</v>
-      </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -29093,18 +29136,18 @@
       </c>
       <c r="J35">
         <f>output.csv!J88/SUM(output.csv!$B88:'output.csv'!$K88)</f>
-        <v>0</v>
+        <v>3.8009675190048375E-3</v>
       </c>
       <c r="K35">
         <f>output.csv!K88/SUM(output.csv!$B88:'output.csv'!$K88)</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
         <v>3.8009675190048375E-3</v>
       </c>
-      <c r="L35">
-        <f>SUM(J35:K35)</f>
-        <v>3.8009675190048375E-3</v>
-      </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29146,18 +29189,18 @@
       </c>
       <c r="J36">
         <f>output.csv!J46/SUM(output.csv!$B46:'output.csv'!$K46)</f>
-        <v>0</v>
+        <v>4.8543689320388345E-3</v>
       </c>
       <c r="K36">
         <f>output.csv!K46/SUM(output.csv!$B46:'output.csv'!$K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
         <v>4.8543689320388345E-3</v>
       </c>
-      <c r="L36">
-        <f>SUM(J36:K36)</f>
-        <v>4.8543689320388345E-3</v>
-      </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29199,18 +29242,18 @@
       </c>
       <c r="J37">
         <f>output.csv!J10/SUM(output.csv!$B10:'output.csv'!$K10)</f>
-        <v>0</v>
+        <v>4.9702786779767067E-3</v>
       </c>
       <c r="K37">
         <f>output.csv!K10/SUM(output.csv!$B10:'output.csv'!$K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
         <v>4.9702786779767067E-3</v>
       </c>
-      <c r="L37">
-        <f>SUM(J37:K37)</f>
-        <v>4.9702786779767067E-3</v>
-      </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29252,18 +29295,18 @@
       </c>
       <c r="J38">
         <f>output.csv!J8/SUM(output.csv!$B8:'output.csv'!$K8)</f>
-        <v>0</v>
+        <v>5.7716107470585885E-3</v>
       </c>
       <c r="K38">
         <f>output.csv!K8/SUM(output.csv!$B8:'output.csv'!$K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
         <v>5.7716107470585885E-3</v>
       </c>
-      <c r="L38">
-        <f>SUM(J38:K38)</f>
-        <v>5.7716107470585885E-3</v>
-      </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -29305,18 +29348,18 @@
       </c>
       <c r="J39">
         <f>output.csv!J9/SUM(output.csv!$B9:'output.csv'!$K9)</f>
-        <v>0</v>
+        <v>5.9337176764101005E-3</v>
       </c>
       <c r="K39">
         <f>output.csv!K9/SUM(output.csv!$B9:'output.csv'!$K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
         <v>5.9337176764101005E-3</v>
       </c>
-      <c r="L39">
-        <f>SUM(J39:K39)</f>
-        <v>5.9337176764101005E-3</v>
-      </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -29358,18 +29401,18 @@
       </c>
       <c r="J40">
         <f>output.csv!J7/SUM(output.csv!$B7:'output.csv'!$K7)</f>
-        <v>0</v>
+        <v>7.8077181458535497E-3</v>
       </c>
       <c r="K40">
         <f>output.csv!K7/SUM(output.csv!$B7:'output.csv'!$K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
         <v>7.8077181458535497E-3</v>
       </c>
-      <c r="L40">
-        <f>SUM(J40:K40)</f>
-        <v>7.8077181458535497E-3</v>
-      </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29411,18 +29454,18 @@
       </c>
       <c r="J41">
         <f>output.csv!J13/SUM(output.csv!$B13:'output.csv'!$K13)</f>
-        <v>0</v>
+        <v>1.2808540885587255E-2</v>
       </c>
       <c r="K41">
         <f>output.csv!K13/SUM(output.csv!$B13:'output.csv'!$K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
         <v>1.2808540885587255E-2</v>
       </c>
-      <c r="L41">
-        <f>SUM(J41:K41)</f>
-        <v>1.2808540885587255E-2</v>
-      </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29464,18 +29507,18 @@
       </c>
       <c r="J42">
         <f>output.csv!J31/SUM(output.csv!$B31:'output.csv'!$K31)</f>
-        <v>0</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="K42">
         <f>output.csv!K31/SUM(output.csv!$B31:'output.csv'!$K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="L42">
-        <f>SUM(J42:K42)</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -29517,18 +29560,18 @@
       </c>
       <c r="J43">
         <f>output.csv!J28/SUM(output.csv!$B28:'output.csv'!$K28)</f>
-        <v>0</v>
+        <v>1.7634160900095085E-2</v>
       </c>
       <c r="K43">
         <f>output.csv!K28/SUM(output.csv!$B28:'output.csv'!$K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
         <v>1.7634160900095085E-2</v>
       </c>
-      <c r="L43">
-        <f>SUM(J43:K43)</f>
-        <v>1.7634160900095085E-2</v>
-      </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29570,18 +29613,18 @@
       </c>
       <c r="J44">
         <f>output.csv!J6/SUM(output.csv!$B6:'output.csv'!$K6)</f>
-        <v>0</v>
+        <v>2.0105855751537938E-2</v>
       </c>
       <c r="K44">
         <f>output.csv!K6/SUM(output.csv!$B6:'output.csv'!$K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
         <v>2.0105855751537938E-2</v>
       </c>
-      <c r="L44">
-        <f>SUM(J44:K44)</f>
-        <v>2.0105855751537938E-2</v>
-      </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29623,18 +29666,18 @@
       </c>
       <c r="J45">
         <f>output.csv!J105/SUM(output.csv!$B105:'output.csv'!$K105)</f>
-        <v>0</v>
+        <v>4.1566928834682167E-2</v>
       </c>
       <c r="K45">
         <f>output.csv!K105/SUM(output.csv!$B105:'output.csv'!$K105)</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
         <v>4.1566928834682167E-2</v>
       </c>
-      <c r="L45">
-        <f>SUM(J45:K45)</f>
-        <v>4.1566928834682167E-2</v>
-      </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29676,18 +29719,18 @@
       </c>
       <c r="J46">
         <f>output.csv!J90/SUM(output.csv!$B90:'output.csv'!$K90)</f>
-        <v>0</v>
+        <v>4.3079498137566286E-2</v>
       </c>
       <c r="K46">
         <f>output.csv!K90/SUM(output.csv!$B90:'output.csv'!$K90)</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
         <v>4.3079498137566286E-2</v>
       </c>
-      <c r="L46">
-        <f>SUM(J46:K46)</f>
-        <v>4.3079498137566286E-2</v>
-      </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29729,18 +29772,18 @@
       </c>
       <c r="J47">
         <f>output.csv!J21/SUM(output.csv!$B21:'output.csv'!$K21)</f>
-        <v>0</v>
+        <v>6.1538953358268596E-2</v>
       </c>
       <c r="K47">
         <f>output.csv!K21/SUM(output.csv!$B21:'output.csv'!$K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
         <v>6.1538953358268596E-2</v>
       </c>
-      <c r="L47">
-        <f>SUM(J47:K47)</f>
-        <v>6.1538953358268596E-2</v>
-      </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -29782,18 +29825,18 @@
       </c>
       <c r="J48">
         <f>output.csv!J54/SUM(output.csv!$B54:'output.csv'!$K54)</f>
-        <v>0</v>
+        <v>6.1729741520340276E-2</v>
       </c>
       <c r="K48">
         <f>output.csv!K54/SUM(output.csv!$B54:'output.csv'!$K54)</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
         <v>6.1729741520340276E-2</v>
       </c>
-      <c r="L48">
-        <f>SUM(J48:K48)</f>
-        <v>6.1729741520340276E-2</v>
-      </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29835,18 +29878,18 @@
       </c>
       <c r="J49">
         <f>output.csv!J49/SUM(output.csv!$B49:'output.csv'!$K49)</f>
-        <v>0</v>
+        <v>6.3128652169748056E-2</v>
       </c>
       <c r="K49">
         <f>output.csv!K49/SUM(output.csv!$B49:'output.csv'!$K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
         <v>6.3128652169748056E-2</v>
       </c>
-      <c r="L49">
-        <f>SUM(J49:K49)</f>
-        <v>6.3128652169748056E-2</v>
-      </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29888,18 +29931,18 @@
       </c>
       <c r="J50">
         <f>output.csv!J100/SUM(output.csv!$B100:'output.csv'!$K100)</f>
-        <v>0</v>
+        <v>6.4315352697095429E-2</v>
       </c>
       <c r="K50">
         <f>output.csv!K100/SUM(output.csv!$B100:'output.csv'!$K100)</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
         <v>6.4315352697095429E-2</v>
       </c>
-      <c r="L50">
-        <f>SUM(J50:K50)</f>
-        <v>6.4315352697095429E-2</v>
-      </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29941,18 +29984,18 @@
       </c>
       <c r="J51">
         <f>output.csv!J66/SUM(output.csv!$B66:'output.csv'!$K66)</f>
-        <v>0</v>
+        <v>7.1603956049985595E-2</v>
       </c>
       <c r="K51">
         <f>output.csv!K66/SUM(output.csv!$B66:'output.csv'!$K66)</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
         <v>7.1603956049985595E-2</v>
       </c>
-      <c r="L51">
-        <f>SUM(J51:K51)</f>
-        <v>7.1603956049985595E-2</v>
-      </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -29994,18 +30037,18 @@
       </c>
       <c r="J52">
         <f>output.csv!J91/SUM(output.csv!$B91:'output.csv'!$K91)</f>
-        <v>0</v>
+        <v>8.2825517822646216E-2</v>
       </c>
       <c r="K52">
         <f>output.csv!K91/SUM(output.csv!$B91:'output.csv'!$K91)</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
         <v>8.2825517822646216E-2</v>
       </c>
-      <c r="L52">
-        <f>SUM(J52:K52)</f>
-        <v>8.2825517822646216E-2</v>
-      </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30047,18 +30090,18 @@
       </c>
       <c r="J53">
         <f>output.csv!J30/SUM(output.csv!$B30:'output.csv'!$K30)</f>
-        <v>0</v>
+        <v>8.5549851293714521E-2</v>
       </c>
       <c r="K53">
         <f>output.csv!K30/SUM(output.csv!$B30:'output.csv'!$K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
         <v>8.5549851293714521E-2</v>
       </c>
-      <c r="L53">
-        <f>SUM(J53:K53)</f>
-        <v>8.5549851293714521E-2</v>
-      </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30100,18 +30143,18 @@
       </c>
       <c r="J54">
         <f>output.csv!J44/SUM(output.csv!$B44:'output.csv'!$K44)</f>
-        <v>0</v>
+        <v>0.20282146731091608</v>
       </c>
       <c r="K54">
         <f>output.csv!K44/SUM(output.csv!$B44:'output.csv'!$K44)</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
         <v>0.20282146731091608</v>
       </c>
-      <c r="L54">
-        <f>SUM(J54:K54)</f>
-        <v>0.20282146731091608</v>
-      </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30153,18 +30196,18 @@
       </c>
       <c r="J55">
         <f>output.csv!J33/SUM(output.csv!$B33:'output.csv'!$K33)</f>
-        <v>0</v>
+        <v>0.20530995143523934</v>
       </c>
       <c r="K55">
         <f>output.csv!K33/SUM(output.csv!$B33:'output.csv'!$K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
         <v>0.20530995143523934</v>
       </c>
-      <c r="L55">
-        <f>SUM(J55:K55)</f>
-        <v>0.20530995143523934</v>
-      </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30206,18 +30249,18 @@
       </c>
       <c r="J56">
         <f>output.csv!J74/SUM(output.csv!$B74:'output.csv'!$K74)</f>
-        <v>0</v>
+        <v>0.21453287197231835</v>
       </c>
       <c r="K56">
         <f>output.csv!K74/SUM(output.csv!$B74:'output.csv'!$K74)</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
         <v>0.21453287197231835</v>
       </c>
-      <c r="L56">
-        <f>SUM(J56:K56)</f>
-        <v>0.21453287197231835</v>
-      </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30259,18 +30302,18 @@
       </c>
       <c r="J57">
         <f>output.csv!J106/SUM(output.csv!$B106:'output.csv'!$K106)</f>
-        <v>0</v>
+        <v>0.21821036106750394</v>
       </c>
       <c r="K57">
         <f>output.csv!K106/SUM(output.csv!$B106:'output.csv'!$K106)</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
         <v>0.21821036106750394</v>
       </c>
-      <c r="L57">
-        <f>SUM(J57:K57)</f>
-        <v>0.21821036106750394</v>
-      </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30312,18 +30355,18 @@
       </c>
       <c r="J58">
         <f>output.csv!J70/SUM(output.csv!$B70:'output.csv'!$K70)</f>
-        <v>0</v>
+        <v>0.24293785310734464</v>
       </c>
       <c r="K58">
         <f>output.csv!K70/SUM(output.csv!$B70:'output.csv'!$K70)</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
         <v>0.24293785310734464</v>
       </c>
-      <c r="L58">
-        <f>SUM(J58:K58)</f>
-        <v>0.24293785310734464</v>
-      </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30365,18 +30408,18 @@
       </c>
       <c r="J59">
         <f>output.csv!J51/SUM(output.csv!$B51:'output.csv'!$K51)</f>
-        <v>0</v>
+        <v>0.28011015643697185</v>
       </c>
       <c r="K59">
         <f>output.csv!K51/SUM(output.csv!$B51:'output.csv'!$K51)</f>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
         <v>0.28011015643697185</v>
       </c>
-      <c r="L59">
-        <f>SUM(J59:K59)</f>
-        <v>0.28011015643697185</v>
-      </c>
       <c r="N59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30418,18 +30461,18 @@
       </c>
       <c r="J60">
         <f>output.csv!J38/SUM(output.csv!$B38:'output.csv'!$K38)</f>
-        <v>0</v>
+        <v>0.28920881512030971</v>
       </c>
       <c r="K60">
         <f>output.csv!K38/SUM(output.csv!$B38:'output.csv'!$K38)</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
         <v>0.28920881512030971</v>
       </c>
-      <c r="L60">
-        <f>SUM(J60:K60)</f>
-        <v>0.28920881512030971</v>
-      </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30471,18 +30514,18 @@
       </c>
       <c r="J61">
         <f>output.csv!J89/SUM(output.csv!$B89:'output.csv'!$K89)</f>
-        <v>0</v>
+        <v>0.29767052219484763</v>
       </c>
       <c r="K61">
         <f>output.csv!K89/SUM(output.csv!$B89:'output.csv'!$K89)</f>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
         <v>0.29767052219484763</v>
       </c>
-      <c r="L61">
-        <f>SUM(J61:K61)</f>
-        <v>0.29767052219484763</v>
-      </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30524,18 +30567,18 @@
       </c>
       <c r="J62">
         <f>output.csv!J77/SUM(output.csv!$B77:'output.csv'!$K77)</f>
-        <v>0</v>
+        <v>0.31977691040933121</v>
       </c>
       <c r="K62">
         <f>output.csv!K77/SUM(output.csv!$B77:'output.csv'!$K77)</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
         <v>0.31977691040933121</v>
       </c>
-      <c r="L62">
-        <f>SUM(J62:K62)</f>
-        <v>0.31977691040933121</v>
-      </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30577,18 +30620,18 @@
       </c>
       <c r="J63">
         <f>output.csv!J63/SUM(output.csv!$B63:'output.csv'!$K63)</f>
-        <v>0</v>
+        <v>0.34376216047941471</v>
       </c>
       <c r="K63">
         <f>output.csv!K63/SUM(output.csv!$B63:'output.csv'!$K63)</f>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
         <v>0.34376216047941471</v>
       </c>
-      <c r="L63">
-        <f>SUM(J63:K63)</f>
-        <v>0.34376216047941471</v>
-      </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30630,18 +30673,18 @@
       </c>
       <c r="J64">
         <f>output.csv!J34/SUM(output.csv!$B34:'output.csv'!$K34)</f>
-        <v>0</v>
+        <v>0.35050472184132442</v>
       </c>
       <c r="K64">
         <f>output.csv!K34/SUM(output.csv!$B34:'output.csv'!$K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
         <v>0.35050472184132442</v>
       </c>
-      <c r="L64">
-        <f>SUM(J64:K64)</f>
-        <v>0.35050472184132442</v>
-      </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -30683,18 +30726,18 @@
       </c>
       <c r="J65">
         <f>output.csv!J61/SUM(output.csv!$B61:'output.csv'!$K61)</f>
-        <v>0</v>
+        <v>0.35878372734107428</v>
       </c>
       <c r="K65">
         <f>output.csv!K61/SUM(output.csv!$B61:'output.csv'!$K61)</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
         <v>0.35878372734107428</v>
       </c>
-      <c r="L65">
-        <f>SUM(J65:K65)</f>
-        <v>0.35878372734107428</v>
-      </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30736,18 +30779,18 @@
       </c>
       <c r="J66">
         <f>output.csv!J98/SUM(output.csv!$B98:'output.csv'!$K98)</f>
-        <v>0</v>
+        <v>0.35984953090363558</v>
       </c>
       <c r="K66">
         <f>output.csv!K98/SUM(output.csv!$B98:'output.csv'!$K98)</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L97" si="3">SUM(J66:K66)</f>
         <v>0.35984953090363558</v>
       </c>
-      <c r="L66">
-        <f>SUM(J66:K66)</f>
-        <v>0.35984953090363558</v>
-      </c>
       <c r="N66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30789,18 +30832,18 @@
       </c>
       <c r="J67">
         <f>output.csv!J4/SUM(output.csv!$B4:'output.csv'!$K4)</f>
-        <v>0</v>
+        <v>0.36342285429292548</v>
       </c>
       <c r="K67">
         <f>output.csv!K4/SUM(output.csv!$B4:'output.csv'!$K4)</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="3"/>
         <v>0.36342285429292548</v>
       </c>
-      <c r="L67">
-        <f>SUM(J67:K67)</f>
-        <v>0.36342285429292548</v>
-      </c>
       <c r="N67">
-        <f t="shared" ref="N67:N106" si="1">SUM(B67:K67)</f>
+        <f t="shared" ref="N67:N106" si="4">SUM(B67:K67)</f>
         <v>1</v>
       </c>
     </row>
@@ -30842,18 +30885,18 @@
       </c>
       <c r="J68">
         <f>output.csv!J96/SUM(output.csv!$B96:'output.csv'!$K96)</f>
-        <v>0</v>
+        <v>0.36372295986436964</v>
       </c>
       <c r="K68">
         <f>output.csv!K96/SUM(output.csv!$B96:'output.csv'!$K96)</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="3"/>
         <v>0.36372295986436964</v>
       </c>
-      <c r="L68">
-        <f>SUM(J68:K68)</f>
-        <v>0.36372295986436964</v>
-      </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -30895,18 +30938,18 @@
       </c>
       <c r="J69">
         <f>output.csv!J39/SUM(output.csv!$B39:'output.csv'!$K39)</f>
-        <v>0</v>
+        <v>0.37380311324287219</v>
       </c>
       <c r="K69">
         <f>output.csv!K39/SUM(output.csv!$B39:'output.csv'!$K39)</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="3"/>
         <v>0.37380311324287219</v>
       </c>
-      <c r="L69">
-        <f>SUM(J69:K69)</f>
-        <v>0.37380311324287219</v>
-      </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -30948,18 +30991,18 @@
       </c>
       <c r="J70">
         <f>output.csv!J94/SUM(output.csv!$B94:'output.csv'!$K94)</f>
-        <v>0</v>
+        <v>0.38044640653705886</v>
       </c>
       <c r="K70">
         <f>output.csv!K94/SUM(output.csv!$B94:'output.csv'!$K94)</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="3"/>
         <v>0.38044640653705886</v>
       </c>
-      <c r="L70">
-        <f>SUM(J70:K70)</f>
-        <v>0.38044640653705886</v>
-      </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31001,18 +31044,18 @@
       </c>
       <c r="J71">
         <f>output.csv!J36/SUM(output.csv!$B36:'output.csv'!$K36)</f>
-        <v>0</v>
+        <v>0.39389876646848115</v>
       </c>
       <c r="K71">
         <f>output.csv!K36/SUM(output.csv!$B36:'output.csv'!$K36)</f>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="3"/>
         <v>0.39389876646848115</v>
       </c>
-      <c r="L71">
-        <f>SUM(J71:K71)</f>
-        <v>0.39389876646848115</v>
-      </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31054,18 +31097,18 @@
       </c>
       <c r="J72">
         <f>output.csv!J3/SUM(output.csv!$B3:'output.csv'!$K3)</f>
-        <v>0</v>
+        <v>0.40170942817769384</v>
       </c>
       <c r="K72">
         <f>output.csv!K3/SUM(output.csv!$B3:'output.csv'!$K3)</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="3"/>
         <v>0.40170942817769384</v>
       </c>
-      <c r="L72">
-        <f>SUM(J72:K72)</f>
-        <v>0.40170942817769384</v>
-      </c>
       <c r="N72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31107,18 +31150,18 @@
       </c>
       <c r="J73">
         <f>output.csv!J35/SUM(output.csv!$B35:'output.csv'!$K35)</f>
-        <v>0</v>
+        <v>0.41643779181543533</v>
       </c>
       <c r="K73">
         <f>output.csv!K35/SUM(output.csv!$B35:'output.csv'!$K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="3"/>
         <v>0.41643779181543533</v>
       </c>
-      <c r="L73">
-        <f>SUM(J73:K73)</f>
-        <v>0.41643779181543533</v>
-      </c>
       <c r="N73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31160,18 +31203,18 @@
       </c>
       <c r="J74">
         <f>output.csv!J40/SUM(output.csv!$B40:'output.csv'!$K40)</f>
-        <v>0</v>
+        <v>0.42172562869146929</v>
       </c>
       <c r="K74">
         <f>output.csv!K40/SUM(output.csv!$B40:'output.csv'!$K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="3"/>
         <v>0.42172562869146929</v>
       </c>
-      <c r="L74">
-        <f>SUM(J74:K74)</f>
-        <v>0.42172562869146929</v>
-      </c>
       <c r="N74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31213,18 +31256,18 @@
       </c>
       <c r="J75">
         <f>output.csv!J48/SUM(output.csv!$B48:'output.csv'!$K48)</f>
-        <v>0</v>
+        <v>0.42854400835329526</v>
       </c>
       <c r="K75">
         <f>output.csv!K48/SUM(output.csv!$B48:'output.csv'!$K48)</f>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="3"/>
         <v>0.42854400835329526</v>
       </c>
-      <c r="L75">
-        <f>SUM(J75:K75)</f>
-        <v>0.42854400835329526</v>
-      </c>
       <c r="N75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31266,18 +31309,18 @@
       </c>
       <c r="J76">
         <f>output.csv!J101/SUM(output.csv!$B101:'output.csv'!$K101)</f>
-        <v>0</v>
+        <v>0.44203772459958263</v>
       </c>
       <c r="K76">
         <f>output.csv!K101/SUM(output.csv!$B101:'output.csv'!$K101)</f>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="3"/>
         <v>0.44203772459958263</v>
       </c>
-      <c r="L76">
-        <f>SUM(J76:K76)</f>
-        <v>0.44203772459958263</v>
-      </c>
       <c r="N76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31319,18 +31362,18 @@
       </c>
       <c r="J77">
         <f>output.csv!J20/SUM(output.csv!$B20:'output.csv'!$K20)</f>
-        <v>0</v>
+        <v>0.46592240593672701</v>
       </c>
       <c r="K77">
         <f>output.csv!K20/SUM(output.csv!$B20:'output.csv'!$K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="3"/>
         <v>0.46592240593672701</v>
       </c>
-      <c r="L77">
-        <f>SUM(J77:K77)</f>
-        <v>0.46592240593672701</v>
-      </c>
       <c r="N77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31372,18 +31415,18 @@
       </c>
       <c r="J78">
         <f>output.csv!J87/SUM(output.csv!$B87:'output.csv'!$K87)</f>
-        <v>0</v>
+        <v>0.48143396075503891</v>
       </c>
       <c r="K78">
         <f>output.csv!K87/SUM(output.csv!$B87:'output.csv'!$K87)</f>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="3"/>
         <v>0.48143396075503891</v>
       </c>
-      <c r="L78">
-        <f>SUM(J78:K78)</f>
-        <v>0.48143396075503891</v>
-      </c>
       <c r="N78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31425,18 +31468,18 @@
       </c>
       <c r="J79">
         <f>output.csv!J18/SUM(output.csv!$B18:'output.csv'!$K18)</f>
-        <v>0</v>
+        <v>0.48876793920566863</v>
       </c>
       <c r="K79">
         <f>output.csv!K18/SUM(output.csv!$B18:'output.csv'!$K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="3"/>
         <v>0.48876793920566863</v>
       </c>
-      <c r="L79">
-        <f>SUM(J79:K79)</f>
-        <v>0.48876793920566863</v>
-      </c>
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31478,18 +31521,18 @@
       </c>
       <c r="J80">
         <f>output.csv!J58/SUM(output.csv!$B58:'output.csv'!$K58)</f>
-        <v>0</v>
+        <v>0.49057950909124542</v>
       </c>
       <c r="K80">
         <f>output.csv!K58/SUM(output.csv!$B58:'output.csv'!$K58)</f>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="3"/>
         <v>0.49057950909124542</v>
       </c>
-      <c r="L80">
-        <f>SUM(J80:K80)</f>
-        <v>0.49057950909124542</v>
-      </c>
       <c r="N80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31531,18 +31574,18 @@
       </c>
       <c r="J81">
         <f>output.csv!J16/SUM(output.csv!$B16:'output.csv'!$K16)</f>
-        <v>0</v>
+        <v>0.5076268771636262</v>
       </c>
       <c r="K81">
         <f>output.csv!K16/SUM(output.csv!$B16:'output.csv'!$K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="3"/>
         <v>0.5076268771636262</v>
       </c>
-      <c r="L81">
-        <f>SUM(J81:K81)</f>
-        <v>0.5076268771636262</v>
-      </c>
       <c r="N81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31584,18 +31627,18 @@
       </c>
       <c r="J82">
         <f>output.csv!J37/SUM(output.csv!$B37:'output.csv'!$K37)</f>
-        <v>0</v>
+        <v>0.51198592478557292</v>
       </c>
       <c r="K82">
         <f>output.csv!K37/SUM(output.csv!$B37:'output.csv'!$K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="3"/>
         <v>0.51198592478557292</v>
       </c>
-      <c r="L82">
-        <f>SUM(J82:K82)</f>
-        <v>0.51198592478557292</v>
-      </c>
       <c r="N82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31637,18 +31680,18 @@
       </c>
       <c r="J83">
         <f>output.csv!J102/SUM(output.csv!$B102:'output.csv'!$K102)</f>
-        <v>0</v>
+        <v>0.51633049910397677</v>
       </c>
       <c r="K83">
         <f>output.csv!K102/SUM(output.csv!$B102:'output.csv'!$K102)</f>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="3"/>
         <v>0.51633049910397677</v>
       </c>
-      <c r="L83">
-        <f>SUM(J83:K83)</f>
-        <v>0.51633049910397677</v>
-      </c>
       <c r="N83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31690,18 +31733,18 @@
       </c>
       <c r="J84">
         <f>output.csv!J71/SUM(output.csv!$B71:'output.csv'!$K71)</f>
-        <v>0</v>
+        <v>0.51866477047132964</v>
       </c>
       <c r="K84">
         <f>output.csv!K71/SUM(output.csv!$B71:'output.csv'!$K71)</f>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="3"/>
         <v>0.51866477047132964</v>
       </c>
-      <c r="L84">
-        <f>SUM(J84:K84)</f>
-        <v>0.51866477047132964</v>
-      </c>
       <c r="N84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31743,18 +31786,18 @@
       </c>
       <c r="J85">
         <f>output.csv!J60/SUM(output.csv!$B60:'output.csv'!$K60)</f>
-        <v>0</v>
+        <v>0.56735168048712092</v>
       </c>
       <c r="K85">
         <f>output.csv!K60/SUM(output.csv!$B60:'output.csv'!$K60)</f>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="3"/>
         <v>0.56735168048712092</v>
       </c>
-      <c r="L85">
-        <f>SUM(J85:K85)</f>
-        <v>0.56735168048712092</v>
-      </c>
       <c r="N85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31796,18 +31839,18 @@
       </c>
       <c r="J86">
         <f>output.csv!J75/SUM(output.csv!$B75:'output.csv'!$K75)</f>
-        <v>0</v>
+        <v>0.65882728221784015</v>
       </c>
       <c r="K86">
         <f>output.csv!K75/SUM(output.csv!$B75:'output.csv'!$K75)</f>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="3"/>
         <v>0.65882728221784015</v>
       </c>
-      <c r="L86">
-        <f>SUM(J86:K86)</f>
-        <v>0.65882728221784015</v>
-      </c>
       <c r="N86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31849,18 +31892,18 @@
       </c>
       <c r="J87">
         <f>output.csv!J47/SUM(output.csv!$B47:'output.csv'!$K47)</f>
-        <v>0</v>
+        <v>0.72527882582196612</v>
       </c>
       <c r="K87">
         <f>output.csv!K47/SUM(output.csv!$B47:'output.csv'!$K47)</f>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="3"/>
         <v>0.72527882582196612</v>
       </c>
-      <c r="L87">
-        <f>SUM(J87:K87)</f>
-        <v>0.72527882582196612</v>
-      </c>
       <c r="N87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31902,18 +31945,18 @@
       </c>
       <c r="J88">
         <f>output.csv!J86/SUM(output.csv!$B86:'output.csv'!$K86)</f>
-        <v>0</v>
+        <v>0.78330548444715165</v>
       </c>
       <c r="K88">
         <f>output.csv!K86/SUM(output.csv!$B86:'output.csv'!$K86)</f>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="3"/>
         <v>0.78330548444715165</v>
       </c>
-      <c r="L88">
-        <f>SUM(J88:K88)</f>
-        <v>0.78330548444715165</v>
-      </c>
       <c r="N88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -31955,18 +31998,18 @@
       </c>
       <c r="J89">
         <f>output.csv!J43/SUM(output.csv!$B43:'output.csv'!$K43)</f>
-        <v>0</v>
+        <v>0.7924365671641791</v>
       </c>
       <c r="K89">
         <f>output.csv!K43/SUM(output.csv!$B43:'output.csv'!$K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="3"/>
         <v>0.7924365671641791</v>
       </c>
-      <c r="L89">
-        <f>SUM(J89:K89)</f>
-        <v>0.7924365671641791</v>
-      </c>
       <c r="N89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32008,18 +32051,18 @@
       </c>
       <c r="J90">
         <f>output.csv!J64/SUM(output.csv!$B64:'output.csv'!$K64)</f>
-        <v>0</v>
+        <v>0.80046066189841192</v>
       </c>
       <c r="K90">
         <f>output.csv!K64/SUM(output.csv!$B64:'output.csv'!$K64)</f>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="3"/>
         <v>0.80046066189841192</v>
       </c>
-      <c r="L90">
-        <f>SUM(J90:K90)</f>
-        <v>0.80046066189841192</v>
-      </c>
       <c r="N90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32061,18 +32104,18 @@
       </c>
       <c r="J91">
         <f>output.csv!J80/SUM(output.csv!$B80:'output.csv'!$K80)</f>
-        <v>0</v>
+        <v>0.80990509961884605</v>
       </c>
       <c r="K91">
         <f>output.csv!K80/SUM(output.csv!$B80:'output.csv'!$K80)</f>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="3"/>
         <v>0.80990509961884605</v>
       </c>
-      <c r="L91">
-        <f>SUM(J91:K91)</f>
-        <v>0.80990509961884605</v>
-      </c>
       <c r="N91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32114,18 +32157,18 @@
       </c>
       <c r="J92">
         <f>output.csv!J76/SUM(output.csv!$B76:'output.csv'!$K76)</f>
-        <v>0</v>
+        <v>0.82905315109561828</v>
       </c>
       <c r="K92">
         <f>output.csv!K76/SUM(output.csv!$B76:'output.csv'!$K76)</f>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="3"/>
         <v>0.82905315109561828</v>
       </c>
-      <c r="L92">
-        <f>SUM(J92:K92)</f>
-        <v>0.82905315109561828</v>
-      </c>
       <c r="N92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32167,18 +32210,18 @@
       </c>
       <c r="J93">
         <f>output.csv!J41/SUM(output.csv!$B41:'output.csv'!$K41)</f>
-        <v>0</v>
+        <v>0.82997182263087643</v>
       </c>
       <c r="K93">
         <f>output.csv!K41/SUM(output.csv!$B41:'output.csv'!$K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="3"/>
         <v>0.82997182263087643</v>
       </c>
-      <c r="L93">
-        <f>SUM(J93:K93)</f>
-        <v>0.82997182263087643</v>
-      </c>
       <c r="N93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32220,18 +32263,18 @@
       </c>
       <c r="J94">
         <f>output.csv!J92/SUM(output.csv!$B92:'output.csv'!$K92)</f>
-        <v>0</v>
+        <v>0.83329393113422712</v>
       </c>
       <c r="K94">
         <f>output.csv!K92/SUM(output.csv!$B92:'output.csv'!$K92)</f>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="3"/>
         <v>0.83329393113422712</v>
       </c>
-      <c r="L94">
-        <f>SUM(J94:K94)</f>
-        <v>0.83329393113422712</v>
-      </c>
       <c r="N94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32273,18 +32316,18 @@
       </c>
       <c r="J95">
         <f>output.csv!J14/SUM(output.csv!$B14:'output.csv'!$K14)</f>
-        <v>0</v>
+        <v>0.89686421637659508</v>
       </c>
       <c r="K95">
         <f>output.csv!K14/SUM(output.csv!$B14:'output.csv'!$K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="3"/>
         <v>0.89686421637659508</v>
       </c>
-      <c r="L95">
-        <f>SUM(J95:K95)</f>
-        <v>0.89686421637659508</v>
-      </c>
       <c r="N95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32326,18 +32369,18 @@
       </c>
       <c r="J96">
         <f>output.csv!J79/SUM(output.csv!$B79:'output.csv'!$K79)</f>
-        <v>0</v>
+        <v>0.91668500298620059</v>
       </c>
       <c r="K96">
         <f>output.csv!K79/SUM(output.csv!$B79:'output.csv'!$K79)</f>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="3"/>
         <v>0.91668500298620059</v>
       </c>
-      <c r="L96">
-        <f>SUM(J96:K96)</f>
-        <v>0.91668500298620059</v>
-      </c>
       <c r="N96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32379,18 +32422,18 @@
       </c>
       <c r="J97">
         <f>output.csv!J85/SUM(output.csv!$B85:'output.csv'!$K85)</f>
-        <v>0</v>
+        <v>0.9206978384965685</v>
       </c>
       <c r="K97">
         <f>output.csv!K85/SUM(output.csv!$B85:'output.csv'!$K85)</f>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="3"/>
         <v>0.9206978384965685</v>
       </c>
-      <c r="L97">
-        <f>SUM(J97:K97)</f>
-        <v>0.9206978384965685</v>
-      </c>
       <c r="N97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32432,18 +32475,18 @@
       </c>
       <c r="J98">
         <f>output.csv!J81/SUM(output.csv!$B81:'output.csv'!$K81)</f>
-        <v>0</v>
+        <v>0.94389261744966446</v>
       </c>
       <c r="K98">
         <f>output.csv!K81/SUM(output.csv!$B81:'output.csv'!$K81)</f>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ref="L98:L106" si="5">SUM(J98:K98)</f>
         <v>0.94389261744966446</v>
       </c>
-      <c r="L98">
-        <f>SUM(J98:K98)</f>
-        <v>0.94389261744966446</v>
-      </c>
       <c r="N98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32485,18 +32528,18 @@
       </c>
       <c r="J99">
         <f>output.csv!J95/SUM(output.csv!$B95:'output.csv'!$K95)</f>
-        <v>0</v>
+        <v>0.94748806546942488</v>
       </c>
       <c r="K99">
         <f>output.csv!K95/SUM(output.csv!$B95:'output.csv'!$K95)</f>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="5"/>
         <v>0.94748806546942488</v>
       </c>
-      <c r="L99">
-        <f>SUM(J99:K99)</f>
-        <v>0.94748806546942488</v>
-      </c>
       <c r="N99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32538,18 +32581,18 @@
       </c>
       <c r="J100">
         <f>output.csv!J62/SUM(output.csv!$B62:'output.csv'!$K62)</f>
-        <v>0</v>
+        <v>0.95305255023183921</v>
       </c>
       <c r="K100">
         <f>output.csv!K62/SUM(output.csv!$B62:'output.csv'!$K62)</f>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="5"/>
         <v>0.95305255023183921</v>
       </c>
-      <c r="L100">
-        <f>SUM(J100:K100)</f>
-        <v>0.95305255023183921</v>
-      </c>
       <c r="N100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32591,18 +32634,18 @@
       </c>
       <c r="J101">
         <f>output.csv!J50/SUM(output.csv!$B50:'output.csv'!$K50)</f>
-        <v>0</v>
+        <v>0.99052239141175946</v>
       </c>
       <c r="K101">
         <f>output.csv!K50/SUM(output.csv!$B50:'output.csv'!$K50)</f>
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="5"/>
         <v>0.99052239141175946</v>
       </c>
-      <c r="L101">
-        <f>SUM(J101:K101)</f>
-        <v>0.99052239141175946</v>
-      </c>
       <c r="N101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32644,18 +32687,18 @@
       </c>
       <c r="J102">
         <f>output.csv!J82/SUM(output.csv!$B82:'output.csv'!$K82)</f>
-        <v>0</v>
+        <v>0.99836370209230496</v>
       </c>
       <c r="K102">
         <f>output.csv!K82/SUM(output.csv!$B82:'output.csv'!$K82)</f>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="5"/>
         <v>0.99836370209230496</v>
       </c>
-      <c r="L102">
-        <f>SUM(J102:K102)</f>
-        <v>0.99836370209230496</v>
-      </c>
       <c r="N102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32697,18 +32740,18 @@
       </c>
       <c r="J103">
         <f>output.csv!J84/SUM(output.csv!$B84:'output.csv'!$K84)</f>
-        <v>0</v>
+        <v>0.99892100997444233</v>
       </c>
       <c r="K103">
         <f>output.csv!K84/SUM(output.csv!$B84:'output.csv'!$K84)</f>
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="5"/>
         <v>0.99892100997444233</v>
       </c>
-      <c r="L103">
-        <f>SUM(J103:K103)</f>
-        <v>0.99892100997444233</v>
-      </c>
       <c r="N103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32750,18 +32793,18 @@
       </c>
       <c r="J104">
         <f>output.csv!J83/SUM(output.csv!$B83:'output.csv'!$K83)</f>
-        <v>0</v>
+        <v>0.9989761157467657</v>
       </c>
       <c r="K104">
         <f>output.csv!K83/SUM(output.csv!$B83:'output.csv'!$K83)</f>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="5"/>
         <v>0.9989761157467657</v>
       </c>
-      <c r="L104">
-        <f>SUM(J104:K104)</f>
-        <v>0.9989761157467657</v>
-      </c>
       <c r="N104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32803,18 +32846,18 @@
       </c>
       <c r="J105">
         <f>output.csv!J78/SUM(output.csv!$B78:'output.csv'!$K78)</f>
-        <v>0</v>
+        <v>0.99900483759502423</v>
       </c>
       <c r="K105">
         <f>output.csv!K78/SUM(output.csv!$B78:'output.csv'!$K78)</f>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="5"/>
         <v>0.99900483759502423</v>
       </c>
-      <c r="L105">
-        <f>SUM(J105:K105)</f>
-        <v>0.99900483759502423</v>
-      </c>
       <c r="N105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32856,18 +32899,18 @@
       </c>
       <c r="J106">
         <f>output.csv!J53/SUM(output.csv!$B53:'output.csv'!$K53)</f>
-        <v>0</v>
+        <v>0.99926293968609126</v>
       </c>
       <c r="K106">
         <f>output.csv!K53/SUM(output.csv!$B53:'output.csv'!$K53)</f>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="5"/>
         <v>0.99926293968609126</v>
       </c>
-      <c r="L106">
-        <f>SUM(J106:K106)</f>
-        <v>0.99926293968609126</v>
-      </c>
       <c r="N106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -32884,7 +32927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -32898,34 +32941,34 @@
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
